--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1805995.678194831</v>
+        <v>1891242.145228784</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13251674.51004886</v>
+        <v>11857191.11602537</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065046.85755849</v>
+        <v>698313.683076074</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6409848.258463118</v>
+        <v>6829559.507159696</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +670,16 @@
         <v>21.71717045362101</v>
       </c>
       <c r="F2" t="n">
-        <v>268.2547435308234</v>
+        <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -722,10 +724,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y2" t="n">
-        <v>401.2838973446586</v>
+        <v>397.188167166915</v>
       </c>
     </row>
     <row r="3">
@@ -817,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>79.02936655690432</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
         <v>277.3826040146988</v>
@@ -880,10 +882,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>224.0793406271554</v>
+        <v>187.2256325115549</v>
       </c>
     </row>
     <row r="5">
@@ -896,13 +898,13 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D5" t="n">
-        <v>419.0596946068497</v>
+        <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>117.297770504159</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
@@ -911,7 +913,7 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>239.8092397409858</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -1060,7 +1062,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F7" t="n">
         <v>170.1431564831852</v>
@@ -1069,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>61.52536999475355</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1108,13 +1110,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>130.774426990978</v>
       </c>
       <c r="X7" t="n">
         <v>240.1382575886529</v>
@@ -1133,22 +1135,22 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>266.4414981451792</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F8" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2956717864458369</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>407.6027988439302</v>
+        <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>1.283897344658556</v>
+        <v>300.1179630699521</v>
       </c>
     </row>
     <row r="9">
@@ -1294,7 +1296,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -1309,7 +1311,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>253.6542084583245</v>
+        <v>271.5104525493489</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1367,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
         <v>422.6317226868329</v>
@@ -1376,16 +1378,16 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>128.451850904526</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1430,7 +1432,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>284.4554049657235</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1531,19 +1533,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>75.73201610191977</v>
       </c>
       <c r="I13" t="n">
         <v>98.77088257712678</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>31.11661068715854</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
         <v>240.905954296359</v>
@@ -1585,7 +1587,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1604,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>192.4112720160241</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -1622,10 +1624,10 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
         <v>218.7163152458132</v>
@@ -1664,16 +1666,16 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>401.2838973446586</v>
+        <v>293.3118661077256</v>
       </c>
     </row>
     <row r="15">
@@ -1762,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>101.330737619658</v>
       </c>
       <c r="G16" t="n">
-        <v>112.2717134098238</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="17">
@@ -1847,7 +1849,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>419.0596946068506</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
@@ -1859,7 +1861,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407063</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -1999,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>47.24726165657607</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -2050,7 +2052,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2059,7 +2061,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
-        <v>2.317367624350097</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
         <v>272.1038797892121</v>
@@ -2090,7 +2092,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>420.8729399924947</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>75.41330364725212</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,13 +2289,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>256.2725500409953</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
         <v>278.8943527180514</v>
@@ -2476,7 +2478,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
-        <v>169.635619496739</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2488,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>150.1330858937262</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2710,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>188.264309024945</v>
+        <v>55.81450188835453</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>157.6386052024379</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S28" t="n">
         <v>168.4336970060565</v>
@@ -2770,7 +2772,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>272.1038797892121</v>
@@ -2779,7 +2781,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="29">
@@ -2855,7 +2857,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>407.6027988439315</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -2947,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
@@ -2956,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>196.4739446307825</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3010,7 +3012,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>16.73661137786902</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3187,13 +3189,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>96.92479256856664</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -3202,7 +3204,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>28.46809341379804</v>
       </c>
       <c r="I34" t="n">
         <v>98.77088257712678</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
         <v>168.4336970060565</v>
@@ -3247,13 +3249,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>188.264309024945</v>
+        <v>78.16614128474215</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>98.15366458399268</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
         <v>168.4336970060565</v>
@@ -3560,7 +3562,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>353.9145207250137</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -3664,13 +3666,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>170.1431564831852</v>
+        <v>113.9811728869526</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S40" t="n">
-        <v>49.87597792716577</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
         <v>240.905954296359</v>
@@ -3727,7 +3729,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>307.6778494116822</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>186.6516570614023</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
@@ -3797,7 +3799,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
         <v>392.4274362026566</v>
@@ -3806,7 +3808,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -3895,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -3910,7 +3912,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>142.3583058069271</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>240.905954296359</v>
@@ -3955,16 +3957,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>146.8887806734697</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>156.3189132120232</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3991,13 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H44" t="n">
-        <v>179.2776729557117</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,19 +4030,19 @@
         <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>147.7993290726188</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
         <v>401.2838973446586</v>
@@ -4135,22 +4137,22 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -4189,19 +4191,19 @@
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>227.635750397087</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>137.9784039879096</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>379.8103493568968</v>
+        <v>462.6949895047144</v>
       </c>
       <c r="C2" t="n">
-        <v>356.950023410601</v>
+        <v>439.8346635584186</v>
       </c>
       <c r="D2" t="n">
-        <v>337.6978066360053</v>
+        <v>420.5824467838229</v>
       </c>
       <c r="E2" t="n">
-        <v>315.7612708242669</v>
+        <v>398.6459109720846</v>
       </c>
       <c r="F2" t="n">
-        <v>44.79688341939484</v>
+        <v>377.5621332018889</v>
       </c>
       <c r="G2" t="n">
-        <v>44.49822504924753</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H2" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J2" t="n">
-        <v>44.49822504924753</v>
+        <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>572.914647509062</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L2" t="n">
-        <v>1123.5801824935</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="M2" t="n">
-        <v>1674.245717477938</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="N2" t="n">
-        <v>1674.245717477938</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="O2" t="n">
-        <v>1674.245717477938</v>
+        <v>1100.603903091853</v>
       </c>
       <c r="P2" t="n">
-        <v>2224.911252462377</v>
+        <v>1651.269438076291</v>
       </c>
       <c r="Q2" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R2" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T2" t="n">
-        <v>2224.911252462377</v>
+        <v>1899.61838738015</v>
       </c>
       <c r="U2" t="n">
-        <v>1966.556343058789</v>
+        <v>1641.263477976562</v>
       </c>
       <c r="V2" t="n">
-        <v>1609.066928185038</v>
+        <v>1283.774063102812</v>
       </c>
       <c r="W2" t="n">
-        <v>1212.675578485385</v>
+        <v>887.3827134031587</v>
       </c>
       <c r="X2" t="n">
-        <v>800.9555796531324</v>
+        <v>879.7031186113101</v>
       </c>
       <c r="Y2" t="n">
-        <v>395.6183096080227</v>
+        <v>478.5029497558403</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.3471129133217</v>
+        <v>611.6217160807028</v>
       </c>
       <c r="C3" t="n">
-        <v>865.8412094308264</v>
+        <v>494.1158125982075</v>
       </c>
       <c r="D3" t="n">
-        <v>762.0012509461114</v>
+        <v>390.2758541134926</v>
       </c>
       <c r="E3" t="n">
-        <v>657.2993172190487</v>
+        <v>285.5739203864298</v>
       </c>
       <c r="F3" t="n">
-        <v>563.6534869019529</v>
+        <v>191.928090069334</v>
       </c>
       <c r="G3" t="n">
-        <v>469.5997151195569</v>
+        <v>97.87431828693795</v>
       </c>
       <c r="H3" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I3" t="n">
-        <v>416.2236218818665</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>687.9211111614576</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K3" t="n">
-        <v>1238.586646145896</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="L3" t="n">
-        <v>1789.252181130334</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="M3" t="n">
-        <v>2142.891942377673</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="N3" t="n">
-        <v>2142.891942377673</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="O3" t="n">
-        <v>2142.891942377673</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="P3" t="n">
-        <v>2142.891942377673</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q3" t="n">
-        <v>2142.891942377673</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R3" t="n">
-        <v>2224.911252462377</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="S3" t="n">
-        <v>2143.587005023631</v>
+        <v>1771.861608191012</v>
       </c>
       <c r="T3" t="n">
-        <v>2001.707069321309</v>
+        <v>1629.98167248869</v>
       </c>
       <c r="U3" t="n">
-        <v>1816.938873240946</v>
+        <v>1445.213476408327</v>
       </c>
       <c r="V3" t="n">
-        <v>1611.965734380212</v>
+        <v>1240.240337547593</v>
       </c>
       <c r="W3" t="n">
-        <v>1415.444357213429</v>
+        <v>1043.71896038081</v>
       </c>
       <c r="X3" t="n">
-        <v>1251.967010980092</v>
+        <v>880.2416141474731</v>
       </c>
       <c r="Y3" t="n">
-        <v>1112.274122333384</v>
+        <v>740.5487255007655</v>
       </c>
     </row>
     <row r="4">
@@ -4462,10 +4464,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>872.2176545659431</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="C4" t="n">
-        <v>792.3900115791711</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D4" t="n">
         <v>792.3900115791711</v>
@@ -4486,52 +4488,52 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734058</v>
+        <v>101.9895532734055</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792431</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736639</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N4" t="n">
         <v>1451.88378161995</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q4" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="S4" t="n">
-        <v>2177.87263914955</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T4" t="n">
-        <v>2177.87263914955</v>
+        <v>1981.571904688276</v>
       </c>
       <c r="U4" t="n">
-        <v>1897.688190649854</v>
+        <v>1701.387456188581</v>
       </c>
       <c r="V4" t="n">
-        <v>1615.976723257883</v>
+        <v>1419.67598879661</v>
       </c>
       <c r="W4" t="n">
-        <v>1341.124319430396</v>
+        <v>1144.823584969123</v>
       </c>
       <c r="X4" t="n">
-        <v>1098.560422876201</v>
+        <v>1144.823584969123</v>
       </c>
       <c r="Y4" t="n">
-        <v>872.2176545659431</v>
+        <v>955.7067844524004</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1034.556608460138</v>
+        <v>776.2016990565496</v>
       </c>
       <c r="C5" t="n">
-        <v>607.6558784734377</v>
+        <v>753.3413731102538</v>
       </c>
       <c r="D5" t="n">
-        <v>184.363257658438</v>
+        <v>734.0891563356581</v>
       </c>
       <c r="E5" t="n">
-        <v>65.88066118959054</v>
+        <v>308.1122164835157</v>
       </c>
       <c r="F5" t="n">
-        <v>44.79688341939484</v>
+        <v>287.02843871332</v>
       </c>
       <c r="G5" t="n">
-        <v>44.49822504924753</v>
+        <v>286.7297803431726</v>
       </c>
       <c r="H5" t="n">
         <v>44.49822504924753</v>
@@ -4568,25 +4570,25 @@
         <v>407.101683866143</v>
       </c>
       <c r="K5" t="n">
-        <v>407.101683866143</v>
+        <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>407.101683866143</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="M5" t="n">
-        <v>667.4947029893171</v>
+        <v>1556.689382596036</v>
       </c>
       <c r="N5" t="n">
-        <v>667.4947029893171</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="O5" t="n">
-        <v>1218.160237973755</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="P5" t="n">
-        <v>1768.825772958194</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="Q5" t="n">
-        <v>2224.911252462377</v>
+        <v>2107.354917580474</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4598,19 +4600,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.911252462377</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="V5" t="n">
-        <v>1867.421837588626</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="W5" t="n">
-        <v>1867.421837588626</v>
+        <v>1609.066928185038</v>
       </c>
       <c r="X5" t="n">
-        <v>1859.742242796777</v>
+        <v>1601.387333393189</v>
       </c>
       <c r="Y5" t="n">
-        <v>1454.404972751668</v>
+        <v>1196.05006334808</v>
       </c>
     </row>
     <row r="6">
@@ -4641,31 +4643,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K6" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="L6" t="n">
-        <v>119.1699405917395</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="M6" t="n">
-        <v>119.1699405917395</v>
+        <v>287.7093087981016</v>
       </c>
       <c r="N6" t="n">
-        <v>669.8354755761777</v>
+        <v>838.3748437825398</v>
       </c>
       <c r="O6" t="n">
-        <v>1220.501010560616</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="P6" t="n">
-        <v>1771.166545545054</v>
+        <v>1389.040378766978</v>
       </c>
       <c r="Q6" t="n">
-        <v>1771.166545545054</v>
+        <v>1853.185855629757</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713.5647419072634</v>
+        <v>861.6538096079925</v>
       </c>
       <c r="C7" t="n">
-        <v>541.5921787861794</v>
+        <v>689.6812464869084</v>
       </c>
       <c r="D7" t="n">
-        <v>378.2754059129501</v>
+        <v>526.3644736136791</v>
       </c>
       <c r="E7" t="n">
-        <v>378.2754059129501</v>
+        <v>360.1562677665327</v>
       </c>
       <c r="F7" t="n">
-        <v>206.4136316875105</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="G7" t="n">
-        <v>206.4136316875105</v>
+        <v>188.2944935410931</v>
       </c>
       <c r="H7" t="n">
-        <v>144.2667933089716</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I7" t="n">
         <v>44.49822504924753</v>
@@ -4726,49 +4728,49 @@
         <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462376</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S7" t="n">
-        <v>2177.872639149549</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="T7" t="n">
-        <v>1934.533291375449</v>
+        <v>1934.53329137545</v>
       </c>
       <c r="U7" t="n">
-        <v>1654.348842875753</v>
+        <v>1934.53329137545</v>
       </c>
       <c r="V7" t="n">
-        <v>1372.637375483782</v>
+        <v>1652.821823983478</v>
       </c>
       <c r="W7" t="n">
-        <v>1372.637375483782</v>
+        <v>1520.726443184511</v>
       </c>
       <c r="X7" t="n">
-        <v>1130.073478929587</v>
+        <v>1278.162546630316</v>
       </c>
       <c r="Y7" t="n">
-        <v>903.7307106193291</v>
+        <v>1051.819778320058</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>783.8507533973008</v>
+        <v>1639.919330369398</v>
       </c>
       <c r="C8" t="n">
-        <v>760.990427451005</v>
+        <v>1213.018600382698</v>
       </c>
       <c r="D8" t="n">
-        <v>491.857601041733</v>
+        <v>789.7259795676982</v>
       </c>
       <c r="E8" t="n">
-        <v>65.88066118959054</v>
+        <v>767.7894437559598</v>
       </c>
       <c r="F8" t="n">
-        <v>44.79688341939484</v>
+        <v>746.7056659857641</v>
       </c>
       <c r="G8" t="n">
-        <v>44.49822504924753</v>
+        <v>342.3666035752127</v>
       </c>
       <c r="H8" t="n">
         <v>44.49822504924753</v>
@@ -4802,28 +4804,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J8" t="n">
-        <v>407.101683866143</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
-        <v>407.101683866143</v>
+        <v>595.1637600336857</v>
       </c>
       <c r="L8" t="n">
-        <v>957.7672188505812</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="M8" t="n">
-        <v>1508.432753835019</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="N8" t="n">
-        <v>2059.098288819458</v>
+        <v>1123.5801824935</v>
       </c>
       <c r="O8" t="n">
-        <v>2107.354917580474</v>
+        <v>1674.245717477938</v>
       </c>
       <c r="P8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="Q8" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R8" t="n">
         <v>2224.911252462377</v>
@@ -4838,16 +4840,16 @@
         <v>1966.556343058789</v>
       </c>
       <c r="V8" t="n">
-        <v>1609.066928185038</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="W8" t="n">
-        <v>1212.675578485385</v>
+        <v>1966.556343058789</v>
       </c>
       <c r="X8" t="n">
-        <v>800.9555796531324</v>
+        <v>1958.87674826694</v>
       </c>
       <c r="Y8" t="n">
-        <v>799.6587136484268</v>
+        <v>1655.727290620524</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4880,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>51.94486801115937</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="J9" t="n">
-        <v>51.94486801115937</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K9" t="n">
-        <v>602.6104029955975</v>
+        <v>866.8612493132769</v>
       </c>
       <c r="L9" t="n">
-        <v>602.6104029955975</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="M9" t="n">
-        <v>1153.275937980036</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="N9" t="n">
-        <v>1703.941472964474</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="O9" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="P9" t="n">
-        <v>1853.185855629757</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q9" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R9" t="n">
         <v>1853.185855629757</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1027.91077931376</v>
+        <v>964.3625747002551</v>
       </c>
       <c r="C10" t="n">
-        <v>855.9382161926764</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="D10" t="n">
-        <v>692.6214433194471</v>
+        <v>792.3900115791711</v>
       </c>
       <c r="E10" t="n">
-        <v>526.4132374723006</v>
+        <v>626.1818057320246</v>
       </c>
       <c r="F10" t="n">
-        <v>354.551463246861</v>
+        <v>454.3200315065851</v>
       </c>
       <c r="G10" t="n">
-        <v>188.2944935410931</v>
+        <v>288.0630618008172</v>
       </c>
       <c r="H10" t="n">
-        <v>44.49822504924753</v>
+        <v>144.2667933089716</v>
       </c>
       <c r="I10" t="n">
         <v>44.49822504924753</v>
@@ -4984,28 +4986,28 @@
         <v>2224.911252462376</v>
       </c>
       <c r="R10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="T10" t="n">
-        <v>2224.911252462376</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>2224.911252462376</v>
+        <v>1897.688190649853</v>
       </c>
       <c r="V10" t="n">
-        <v>1943.199785070404</v>
+        <v>1897.688190649853</v>
       </c>
       <c r="W10" t="n">
-        <v>1686.983412890279</v>
+        <v>1623.435208276773</v>
       </c>
       <c r="X10" t="n">
-        <v>1444.419516336084</v>
+        <v>1380.871311722579</v>
       </c>
       <c r="Y10" t="n">
-        <v>1218.076748025826</v>
+        <v>1154.528543412321</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1079.521716903027</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C11" t="n">
-        <v>652.6209869163267</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D11" t="n">
-        <v>229.328366101327</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E11" t="n">
-        <v>229.328366101327</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F11" t="n">
-        <v>229.328366101327</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G11" t="n">
-        <v>229.328366101327</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H11" t="n">
-        <v>99.57902175332092</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I11" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J11" t="n">
-        <v>427.2856093136876</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K11" t="n">
-        <v>427.2856093136876</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L11" t="n">
-        <v>1227.72722171149</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>2028.168834109293</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N11" t="n">
-        <v>2828.610446507096</v>
+        <v>3084.064817777362</v>
       </c>
       <c r="O11" t="n">
-        <v>2828.610446507096</v>
+        <v>3929.209467928174</v>
       </c>
       <c r="P11" t="n">
-        <v>2828.610446507096</v>
+        <v>4637.488747086102</v>
       </c>
       <c r="Q11" t="n">
-        <v>3116.551189957704</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R11" t="n">
-        <v>3234.107524839606</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>3129.740230712747</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T11" t="n">
-        <v>2908.81465975738</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U11" t="n">
-        <v>2650.459750353793</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V11" t="n">
-        <v>2292.970335480042</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W11" t="n">
-        <v>1896.578985780389</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X11" t="n">
-        <v>1484.858986948136</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y11" t="n">
-        <v>1079.521716903027</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C12" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D12" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E12" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F12" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G12" t="n">
-        <v>118.0582437344825</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H12" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I12" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J12" t="n">
-        <v>336.3796397763832</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K12" t="n">
-        <v>336.3796397763832</v>
+        <v>690.5618714473296</v>
       </c>
       <c r="L12" t="n">
-        <v>336.3796397763832</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="M12" t="n">
-        <v>336.3796397763832</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="N12" t="n">
-        <v>1136.821252174186</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="O12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R12" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S12" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T12" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U12" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V12" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W12" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X12" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y12" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>474.5039569541296</v>
+        <v>605.867477820625</v>
       </c>
       <c r="C13" t="n">
-        <v>474.5039569541296</v>
+        <v>605.867477820625</v>
       </c>
       <c r="D13" t="n">
-        <v>474.5039569541296</v>
+        <v>442.5507049473957</v>
       </c>
       <c r="E13" t="n">
-        <v>474.5039569541296</v>
+        <v>276.3424991002493</v>
       </c>
       <c r="F13" t="n">
-        <v>474.5039569541296</v>
+        <v>276.3424991002493</v>
       </c>
       <c r="G13" t="n">
-        <v>308.2469872483617</v>
+        <v>276.3424991002493</v>
       </c>
       <c r="H13" t="n">
-        <v>164.4507187565162</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I13" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J13" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K13" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L13" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M13" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N13" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O13" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P13" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q13" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2213.664258023902</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S13" t="n">
-        <v>2213.664258023902</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T13" t="n">
-        <v>1970.324910249802</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U13" t="n">
-        <v>1690.140461750106</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="V13" t="n">
-        <v>1408.428994358135</v>
+        <v>1539.792515224631</v>
       </c>
       <c r="W13" t="n">
-        <v>1133.576590530648</v>
+        <v>1264.940111397143</v>
       </c>
       <c r="X13" t="n">
-        <v>891.0126939764532</v>
+        <v>1022.376214842949</v>
       </c>
       <c r="Y13" t="n">
-        <v>664.6699256661952</v>
+        <v>796.0334465326906</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1937.769775603292</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C14" t="n">
-        <v>1743.414955385085</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D14" t="n">
-        <v>1320.122334570086</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E14" t="n">
-        <v>894.1453947179433</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F14" t="n">
-        <v>469.0212129073435</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G14" t="n">
-        <v>64.68215049679216</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H14" t="n">
-        <v>64.68215049679216</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I14" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J14" t="n">
-        <v>64.68215049679216</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>715.2263527642963</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="L14" t="n">
-        <v>1515.667965162099</v>
+        <v>1392.305451315162</v>
       </c>
       <c r="M14" t="n">
-        <v>1515.667965162099</v>
+        <v>2396.59155273422</v>
       </c>
       <c r="N14" t="n">
-        <v>2316.109577559902</v>
+        <v>3372.842611220921</v>
       </c>
       <c r="O14" t="n">
-        <v>3116.551189957705</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P14" t="n">
-        <v>3116.551189957705</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q14" t="n">
-        <v>3116.551189957705</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R14" t="n">
-        <v>3234.107524839608</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S14" t="n">
-        <v>3234.107524839608</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>3013.181953884241</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U14" t="n">
-        <v>2754.827044480654</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V14" t="n">
-        <v>2754.827044480654</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W14" t="n">
-        <v>2754.827044480654</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X14" t="n">
-        <v>2343.107045648401</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y14" t="n">
-        <v>1937.769775603292</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C15" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D15" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E15" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F15" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G15" t="n">
-        <v>118.0582437344826</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H15" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>64.68215049679216</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="J15" t="n">
-        <v>64.68215049679216</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="K15" t="n">
-        <v>64.68215049679216</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="L15" t="n">
-        <v>865.1237628945952</v>
+        <v>107.5235878409019</v>
       </c>
       <c r="M15" t="n">
-        <v>865.1237628945952</v>
+        <v>937.263987363325</v>
       </c>
       <c r="N15" t="n">
-        <v>865.1237628945952</v>
+        <v>937.263987363325</v>
       </c>
       <c r="O15" t="n">
-        <v>1157.172064038804</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="P15" t="n">
-        <v>1873.369781077302</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="Q15" t="n">
-        <v>1873.369781077302</v>
+        <v>1826.745265374797</v>
       </c>
       <c r="R15" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S15" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T15" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U15" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V15" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W15" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X15" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y15" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>685.2390318375792</v>
+        <v>684.4570266215845</v>
       </c>
       <c r="C16" t="n">
-        <v>513.2664687164952</v>
+        <v>512.4844635005005</v>
       </c>
       <c r="D16" t="n">
-        <v>349.9496958432659</v>
+        <v>512.4844635005005</v>
       </c>
       <c r="E16" t="n">
-        <v>349.9496958432659</v>
+        <v>512.4844635005005</v>
       </c>
       <c r="F16" t="n">
-        <v>178.0879216178263</v>
+        <v>410.1301830766035</v>
       </c>
       <c r="G16" t="n">
-        <v>64.68215049679216</v>
+        <v>243.8732133708357</v>
       </c>
       <c r="H16" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I16" t="n">
-        <v>64.68215049679216</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J16" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K16" t="n">
-        <v>348.7010799267874</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L16" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M16" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N16" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O16" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P16" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S16" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="T16" t="n">
-        <v>1954.717216822994</v>
+        <v>1990.112011205191</v>
       </c>
       <c r="U16" t="n">
-        <v>1674.532768323298</v>
+        <v>1709.927562705496</v>
       </c>
       <c r="V16" t="n">
-        <v>1392.821300931327</v>
+        <v>1428.216095313524</v>
       </c>
       <c r="W16" t="n">
-        <v>1117.96889710384</v>
+        <v>1153.363691486037</v>
       </c>
       <c r="X16" t="n">
-        <v>875.4050005496448</v>
+        <v>910.7997949318425</v>
       </c>
       <c r="Y16" t="n">
-        <v>875.4050005496448</v>
+        <v>684.4570266215845</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5497,16 @@
         <v>2113.800768076617</v>
       </c>
       <c r="D17" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E17" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F17" t="n">
-        <v>839.4070255988747</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G17" t="n">
-        <v>435.0679631883233</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H17" t="n">
         <v>137.1995846623573</v>
@@ -5522,19 +5524,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M17" t="n">
-        <v>3114.325629236558</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>4090.576687723259</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O17" t="n">
-        <v>4935.721337874071</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P17" t="n">
-        <v>4997.579335409525</v>
+        <v>4639.71451561294</v>
       </c>
       <c r="Q17" t="n">
-        <v>4997.579335409525</v>
+        <v>5095.799995117123</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5589,22 +5591,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I18" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J18" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L18" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="N18" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O18" t="n">
         <v>1910.990343986338</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1019.226866224298</v>
+        <v>759.8870954416583</v>
       </c>
       <c r="C19" t="n">
-        <v>847.2543031032136</v>
+        <v>587.9145323205743</v>
       </c>
       <c r="D19" t="n">
-        <v>683.9375302299843</v>
+        <v>587.9145323205743</v>
       </c>
       <c r="E19" t="n">
-        <v>517.7293243828378</v>
+        <v>587.9145323205743</v>
       </c>
       <c r="F19" t="n">
-        <v>345.8675501573982</v>
+        <v>416.0527580951347</v>
       </c>
       <c r="G19" t="n">
-        <v>345.8675501573982</v>
+        <v>249.7957883893668</v>
       </c>
       <c r="H19" t="n">
         <v>202.0712816655526</v>
@@ -5698,25 +5700,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S19" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T19" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U19" t="n">
-        <v>1955.492679006434</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V19" t="n">
-        <v>1953.151903628303</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W19" t="n">
-        <v>1678.299499800816</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X19" t="n">
-        <v>1435.735603246621</v>
+        <v>986.2298637519162</v>
       </c>
       <c r="Y19" t="n">
-        <v>1209.392834936363</v>
+        <v>759.8870954416583</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063317</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076617</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261616</v>
+        <v>1690.508147261617</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409474</v>
+        <v>1264.531207409475</v>
       </c>
       <c r="F20" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G20" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H20" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I20" t="n">
         <v>102.3027134058285</v>
@@ -5753,22 +5755,22 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>1180.414480198223</v>
+        <v>1082.193820490624</v>
       </c>
       <c r="L20" t="n">
-        <v>2110.0395278175</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M20" t="n">
-        <v>3114.325629236558</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N20" t="n">
-        <v>4090.576687723259</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O20" t="n">
-        <v>4935.721337874071</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P20" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q20" t="n">
         <v>4997.579335409525</v>
@@ -5786,16 +5788,16 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399955</v>
+        <v>3365.887132399956</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354846</v>
+        <v>2960.549862354847</v>
       </c>
     </row>
     <row r="21">
@@ -5835,22 +5837,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="L21" t="n">
-        <v>305.3113489363686</v>
+        <v>939.1015214887346</v>
       </c>
       <c r="M21" t="n">
-        <v>305.3113489363686</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="N21" t="n">
-        <v>305.3113489363686</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="O21" t="n">
-        <v>1194.79262694784</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="P21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="Q21" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R21" t="n">
         <v>1910.990343986338</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>517.8401132784822</v>
+        <v>516.5477476675582</v>
       </c>
       <c r="C22" t="n">
-        <v>345.8675501573982</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="D22" t="n">
-        <v>345.8675501573982</v>
+        <v>440.3726934784146</v>
       </c>
       <c r="E22" t="n">
-        <v>345.8675501573982</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G22" t="n">
-        <v>345.8675501573982</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H22" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I22" t="n">
         <v>102.3027134058285</v>
@@ -5935,25 +5937,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S22" t="n">
-        <v>2235.67712750613</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T22" t="n">
-        <v>1992.33777973203</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U22" t="n">
-        <v>1733.476618074459</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V22" t="n">
-        <v>1451.765150682488</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W22" t="n">
-        <v>1176.912746855001</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X22" t="n">
-        <v>934.3488503008059</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y22" t="n">
-        <v>708.006081990548</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="23">
@@ -5990,25 +5992,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="K23" t="n">
-        <v>817.8110213813276</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L23" t="n">
-        <v>1747.436069000604</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M23" t="n">
-        <v>2751.722170419663</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N23" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O23" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P23" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q23" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R23" t="n">
         <v>5115.135670291427</v>
@@ -6075,19 +6077,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M24" t="n">
-        <v>1158.289251381874</v>
+        <v>275.5106105659859</v>
       </c>
       <c r="N24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="O24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="P24" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q24" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R24" t="n">
         <v>1910.990343986338</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>373.4203922683193</v>
+        <v>569.7211267295927</v>
       </c>
       <c r="C25" t="n">
-        <v>202.0712816655526</v>
+        <v>397.7485636085087</v>
       </c>
       <c r="D25" t="n">
-        <v>202.0712816655526</v>
+        <v>397.7485636085087</v>
       </c>
       <c r="E25" t="n">
-        <v>202.0712816655526</v>
+        <v>397.7485636085087</v>
       </c>
       <c r="F25" t="n">
-        <v>202.0712816655526</v>
+        <v>397.7485636085087</v>
       </c>
       <c r="G25" t="n">
-        <v>202.0712816655526</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H25" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I25" t="n">
         <v>102.3027134058285</v>
@@ -6169,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S25" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T25" t="n">
-        <v>1869.241345563992</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="U25" t="n">
-        <v>1589.056897064296</v>
+        <v>1785.357631525569</v>
       </c>
       <c r="V25" t="n">
-        <v>1307.345429672325</v>
+        <v>1503.646164133598</v>
       </c>
       <c r="W25" t="n">
-        <v>1032.493025844838</v>
+        <v>1228.793760306111</v>
       </c>
       <c r="X25" t="n">
-        <v>789.9291292906429</v>
+        <v>986.2298637519162</v>
       </c>
       <c r="Y25" t="n">
-        <v>563.5863609803849</v>
+        <v>759.8870954416583</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>102.3027134058285</v>
+        <v>338.650469582768</v>
       </c>
       <c r="K26" t="n">
-        <v>817.8110213813276</v>
+        <v>1054.158777558267</v>
       </c>
       <c r="L26" t="n">
-        <v>1747.436069000604</v>
+        <v>1983.783825177544</v>
       </c>
       <c r="M26" t="n">
-        <v>2751.722170419663</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="N26" t="n">
-        <v>3727.973228906364</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O26" t="n">
-        <v>4573.117879057176</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P26" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q26" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6303,16 +6305,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="K27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="L27" t="n">
-        <v>102.3027134058285</v>
+        <v>374.0002026854196</v>
       </c>
       <c r="M27" t="n">
-        <v>821.6753975134684</v>
+        <v>1429.986740661465</v>
       </c>
       <c r="N27" t="n">
         <v>1910.990343986338</v>
@@ -6358,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>599.7631605785773</v>
+        <v>741.8809303238178</v>
       </c>
       <c r="C28" t="n">
-        <v>427.7905974574933</v>
+        <v>741.8809303238178</v>
       </c>
       <c r="D28" t="n">
-        <v>427.7905974574933</v>
+        <v>578.5641574505885</v>
       </c>
       <c r="E28" t="n">
-        <v>427.7905974574933</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F28" t="n">
-        <v>268.5596831115964</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G28" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H28" t="n">
         <v>102.3027134058285</v>
@@ -6406,28 +6408,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R28" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S28" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T28" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V28" t="n">
-        <v>1307.345429672325</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W28" t="n">
-        <v>1032.493025844838</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X28" t="n">
-        <v>789.9291292906429</v>
+        <v>1024.601983369787</v>
       </c>
       <c r="Y28" t="n">
-        <v>789.9291292906429</v>
+        <v>798.2592150595294</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6449,40 +6451,40 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988736</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883222</v>
+        <v>435.0679631883225</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623568</v>
+        <v>137.1995846623573</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
       </c>
       <c r="J29" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K29" t="n">
-        <v>817.8110213813276</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L29" t="n">
-        <v>1747.436069000604</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2751.722170419663</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N29" t="n">
-        <v>3727.973228906364</v>
+        <v>3086.290586304201</v>
       </c>
       <c r="O29" t="n">
-        <v>4573.117879057176</v>
+        <v>3931.435236455013</v>
       </c>
       <c r="P29" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q29" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6497,10 +6499,10 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V29" t="n">
-        <v>4173.998480931861</v>
+        <v>4173.998480931862</v>
       </c>
       <c r="W29" t="n">
-        <v>3777.607131232208</v>
+        <v>3777.607131232209</v>
       </c>
       <c r="X29" t="n">
         <v>3365.887132399955</v>
@@ -6549,19 +6551,19 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M30" t="n">
-        <v>739.6560874287652</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N30" t="n">
-        <v>1828.971033901635</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O30" t="n">
-        <v>1828.971033901635</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P30" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="Q30" t="n">
-        <v>1828.971033901635</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="R30" t="n">
         <v>1910.990343986338</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>778.6022263052665</v>
+        <v>584.328514724526</v>
       </c>
       <c r="C31" t="n">
-        <v>606.6296631841825</v>
+        <v>412.355951603442</v>
       </c>
       <c r="D31" t="n">
-        <v>606.6296631841825</v>
+        <v>412.355951603442</v>
       </c>
       <c r="E31" t="n">
-        <v>440.421457337036</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F31" t="n">
-        <v>268.5596831115964</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G31" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6643,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S31" t="n">
-        <v>2282.715740818957</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T31" t="n">
-        <v>2084.257210888873</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U31" t="n">
-        <v>1804.072762389178</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V31" t="n">
-        <v>1522.361294997206</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W31" t="n">
-        <v>1247.508891169719</v>
+        <v>1243.401148301044</v>
       </c>
       <c r="X31" t="n">
-        <v>1004.944994615524</v>
+        <v>1000.83725174685</v>
       </c>
       <c r="Y31" t="n">
-        <v>778.6022263052665</v>
+        <v>774.4944834365917</v>
       </c>
     </row>
     <row r="32">
@@ -6698,25 +6700,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>102.3027134058285</v>
+        <v>292.0244587153436</v>
       </c>
       <c r="K32" t="n">
-        <v>533.9931985757493</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="L32" t="n">
-        <v>1463.618246195026</v>
+        <v>1007.532766690843</v>
       </c>
       <c r="M32" t="n">
-        <v>2467.904347614084</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N32" t="n">
-        <v>3444.155406100785</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O32" t="n">
-        <v>4289.300056251597</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P32" t="n">
-        <v>4997.579335409525</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q32" t="n">
         <v>4997.579335409525</v>
@@ -6786,13 +6788,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>821.6753975134684</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="N33" t="n">
-        <v>1910.990343986338</v>
+        <v>305.3113489363686</v>
       </c>
       <c r="O33" t="n">
-        <v>1910.990343986338</v>
+        <v>1194.79262694784</v>
       </c>
       <c r="P33" t="n">
         <v>1910.990343986338</v>
@@ -6832,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1117.179460960259</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="C34" t="n">
-        <v>945.2068978391751</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="D34" t="n">
-        <v>781.8901249659458</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="E34" t="n">
-        <v>683.9862940886057</v>
+        <v>568.9456755096874</v>
       </c>
       <c r="F34" t="n">
-        <v>512.1245198631661</v>
+        <v>397.0839012842478</v>
       </c>
       <c r="G34" t="n">
-        <v>345.8675501573982</v>
+        <v>230.8269315784799</v>
       </c>
       <c r="H34" t="n">
         <v>202.0712816655526</v>
@@ -6880,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S34" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T34" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U34" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V34" t="n">
-        <v>1307.345429672325</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W34" t="n">
-        <v>1307.345429672325</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X34" t="n">
-        <v>1307.345429672325</v>
+        <v>985.454412532011</v>
       </c>
       <c r="Y34" t="n">
-        <v>1307.345429672325</v>
+        <v>759.1116442217531</v>
       </c>
     </row>
     <row r="35">
@@ -6935,28 +6937,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J35" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K35" t="n">
-        <v>651.5495334576516</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1581.174581076928</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M35" t="n">
-        <v>2585.460682495986</v>
+        <v>2184.700581617281</v>
       </c>
       <c r="N35" t="n">
-        <v>3561.711740982687</v>
+        <v>3160.951640103982</v>
       </c>
       <c r="O35" t="n">
-        <v>4406.8563911335</v>
+        <v>4006.096290254794</v>
       </c>
       <c r="P35" t="n">
-        <v>5115.135670291427</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q35" t="n">
-        <v>5115.135670291427</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7011,22 +7013,22 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J36" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K36" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="L36" t="n">
-        <v>102.3027134058285</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="M36" t="n">
-        <v>1158.289251381874</v>
+        <v>821.6753975134684</v>
       </c>
       <c r="N36" t="n">
-        <v>1158.289251381874</v>
+        <v>1910.990343986338</v>
       </c>
       <c r="O36" t="n">
         <v>1910.990343986338</v>
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>373.4203922683193</v>
+        <v>437.5920494001418</v>
       </c>
       <c r="C37" t="n">
-        <v>201.4478291472353</v>
+        <v>265.6194862790578</v>
       </c>
       <c r="D37" t="n">
-        <v>201.4478291472353</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="E37" t="n">
-        <v>201.4478291472353</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="F37" t="n">
         <v>102.3027134058285</v>
@@ -7117,28 +7119,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R37" t="n">
-        <v>2282.715740818957</v>
+        <v>2235.67712750613</v>
       </c>
       <c r="S37" t="n">
-        <v>2112.580693338092</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T37" t="n">
-        <v>1869.241345563992</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U37" t="n">
-        <v>1589.056897064296</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>1307.345429672325</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W37" t="n">
-        <v>1032.493025844838</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X37" t="n">
-        <v>789.9291292906429</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y37" t="n">
-        <v>563.5863609803849</v>
+        <v>516.5477476675582</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2540.701498063315</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C38" t="n">
-        <v>2113.800768076615</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D38" t="n">
         <v>1690.508147261616</v>
@@ -7160,7 +7162,7 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F38" t="n">
-        <v>839.4070255988739</v>
+        <v>839.4070255988738</v>
       </c>
       <c r="G38" t="n">
         <v>435.0679631883225</v>
@@ -7172,52 +7174,52 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J38" t="n">
-        <v>188.2350251358952</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K38" t="n">
-        <v>903.7433331113942</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>1833.368380730671</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="M38" t="n">
-        <v>2837.654482149729</v>
+        <v>2011.818868109901</v>
       </c>
       <c r="N38" t="n">
-        <v>3813.90554063643</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O38" t="n">
-        <v>4659.050190787242</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P38" t="n">
-        <v>4659.050190787242</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q38" t="n">
-        <v>5115.135670291425</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R38" t="n">
-        <v>5115.135670291425</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164566</v>
+        <v>5010.768376164568</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.842805209199</v>
+        <v>4789.8428052092</v>
       </c>
       <c r="U38" t="n">
-        <v>4531.487895805611</v>
+        <v>4531.487895805612</v>
       </c>
       <c r="V38" t="n">
-        <v>4173.99848093186</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W38" t="n">
-        <v>3777.607131232207</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X38" t="n">
         <v>3365.887132399955</v>
       </c>
       <c r="Y38" t="n">
-        <v>2960.549862354845</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="39">
@@ -7242,7 +7244,7 @@
         <v>249.7325784259149</v>
       </c>
       <c r="G39" t="n">
-        <v>155.6788066435189</v>
+        <v>155.678806643519</v>
       </c>
       <c r="H39" t="n">
         <v>102.3027134058285</v>
@@ -7260,16 +7262,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M39" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="O39" t="n">
-        <v>1910.990343986338</v>
+        <v>1191.617659878699</v>
       </c>
       <c r="P39" t="n">
-        <v>1910.990343986338</v>
+        <v>1907.815376917197</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7306,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>446.1370507523521</v>
+        <v>552.7245472657505</v>
       </c>
       <c r="C40" t="n">
-        <v>274.1644876312681</v>
+        <v>380.7519841446665</v>
       </c>
       <c r="D40" t="n">
-        <v>274.1644876312681</v>
+        <v>217.4352112714372</v>
       </c>
       <c r="E40" t="n">
-        <v>274.1644876312681</v>
+        <v>217.4352112714372</v>
       </c>
       <c r="F40" t="n">
         <v>102.3027134058285</v>
@@ -7330,10 +7332,10 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J40" t="n">
-        <v>159.7940416299865</v>
+        <v>159.7940416299866</v>
       </c>
       <c r="K40" t="n">
-        <v>386.3216428358237</v>
+        <v>386.3216428358238</v>
       </c>
       <c r="L40" t="n">
         <v>741.0109641302445</v>
@@ -7357,25 +7359,25 @@
         <v>2235.67712750613</v>
       </c>
       <c r="S40" t="n">
-        <v>2185.297351822124</v>
+        <v>2065.542080025265</v>
       </c>
       <c r="T40" t="n">
-        <v>1941.958004048024</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="U40" t="n">
-        <v>1661.773555548329</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="V40" t="n">
-        <v>1380.062088156358</v>
+        <v>1260.306816359498</v>
       </c>
       <c r="W40" t="n">
-        <v>1105.20968432887</v>
+        <v>985.454412532011</v>
       </c>
       <c r="X40" t="n">
-        <v>862.6457877746757</v>
+        <v>742.8905159778161</v>
       </c>
       <c r="Y40" t="n">
-        <v>636.3030194644177</v>
+        <v>742.8905159778161</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1842.348401821887</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C41" t="n">
-        <v>1415.447671835187</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D41" t="n">
-        <v>1415.447671835187</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E41" t="n">
-        <v>1226.910644500437</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F41" t="n">
-        <v>801.7864626898374</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G41" t="n">
-        <v>397.4474002792861</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H41" t="n">
-        <v>99.57902175332092</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I41" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J41" t="n">
-        <v>64.68215049679213</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K41" t="n">
-        <v>64.68215049679213</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L41" t="n">
-        <v>865.1237628945947</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>1665.565375292397</v>
+        <v>2745.67509191879</v>
       </c>
       <c r="N41" t="n">
-        <v>2466.0069876902</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="O41" t="n">
-        <v>3234.107524839606</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P41" t="n">
-        <v>3234.107524839606</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q41" t="n">
-        <v>3234.107524839606</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R41" t="n">
-        <v>3234.107524839606</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S41" t="n">
-        <v>3129.740230712747</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T41" t="n">
-        <v>2908.81465975738</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U41" t="n">
-        <v>2650.459750353793</v>
+        <v>4420.19946946369</v>
       </c>
       <c r="V41" t="n">
-        <v>2650.459750353793</v>
+        <v>4062.710054589939</v>
       </c>
       <c r="W41" t="n">
-        <v>2254.06840065414</v>
+        <v>3666.318704890286</v>
       </c>
       <c r="X41" t="n">
-        <v>1842.348401821887</v>
+        <v>3254.598706058034</v>
       </c>
       <c r="Y41" t="n">
-        <v>1842.348401821887</v>
+        <v>2849.261436012924</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>631.8056415282474</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C42" t="n">
-        <v>514.2997380457522</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D42" t="n">
-        <v>410.4597795610372</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E42" t="n">
-        <v>305.7578458339744</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F42" t="n">
-        <v>212.1120155168786</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G42" t="n">
-        <v>118.0582437344825</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H42" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I42" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>64.68215049679213</v>
+        <v>355.3041521238506</v>
       </c>
       <c r="K42" t="n">
-        <v>64.68215049679213</v>
+        <v>355.3041521238506</v>
       </c>
       <c r="L42" t="n">
-        <v>865.1237628945947</v>
+        <v>355.3041521238506</v>
       </c>
       <c r="M42" t="n">
-        <v>1072.928168679499</v>
+        <v>355.3041521238506</v>
       </c>
       <c r="N42" t="n">
-        <v>1873.369781077302</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="O42" t="n">
-        <v>1873.369781077302</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="P42" t="n">
-        <v>1873.369781077302</v>
+        <v>1444.619098596721</v>
       </c>
       <c r="Q42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R42" t="n">
-        <v>1873.369781077302</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S42" t="n">
-        <v>1792.045533638556</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T42" t="n">
-        <v>1650.165597936235</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U42" t="n">
-        <v>1465.397401855871</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V42" t="n">
-        <v>1260.424262995137</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W42" t="n">
-        <v>1063.902885828355</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X42" t="n">
-        <v>900.4255395950178</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y42" t="n">
-        <v>760.7326509483102</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>876.122141640221</v>
+        <v>3640.589801095121</v>
       </c>
       <c r="C43" t="n">
-        <v>876.122141640221</v>
+        <v>3468.617237974037</v>
       </c>
       <c r="D43" t="n">
-        <v>712.8053687669917</v>
+        <v>3305.300465100808</v>
       </c>
       <c r="E43" t="n">
-        <v>546.5971629198452</v>
+        <v>3139.092259253661</v>
       </c>
       <c r="F43" t="n">
-        <v>374.7353886944056</v>
+        <v>2967.230485028222</v>
       </c>
       <c r="G43" t="n">
-        <v>208.4784189886377</v>
+        <v>2967.230485028222</v>
       </c>
       <c r="H43" t="n">
-        <v>64.68215049679213</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="I43" t="n">
-        <v>64.68215049679213</v>
+        <v>2823.434216536376</v>
       </c>
       <c r="J43" t="n">
-        <v>122.1734787209502</v>
+        <v>2880.925544760534</v>
       </c>
       <c r="K43" t="n">
-        <v>348.7010799267873</v>
+        <v>3107.453145966371</v>
       </c>
       <c r="L43" t="n">
-        <v>703.3904012212081</v>
+        <v>3462.142467260792</v>
       </c>
       <c r="M43" t="n">
-        <v>1094.576196191459</v>
+        <v>3853.328262231043</v>
       </c>
       <c r="N43" t="n">
-        <v>1472.067707067495</v>
+        <v>4230.819773107079</v>
       </c>
       <c r="O43" t="n">
-        <v>1827.495835747258</v>
+        <v>4586.247901786842</v>
       </c>
       <c r="P43" t="n">
-        <v>2118.095047669159</v>
+        <v>4876.847113708743</v>
       </c>
       <c r="Q43" t="n">
-        <v>2245.09517790992</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R43" t="n">
-        <v>2245.09517790992</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S43" t="n">
-        <v>2074.960130429055</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T43" t="n">
-        <v>1831.620782654955</v>
+        <v>4760.507896175404</v>
       </c>
       <c r="U43" t="n">
-        <v>1551.43633415526</v>
+        <v>4480.323447675709</v>
       </c>
       <c r="V43" t="n">
-        <v>1551.43633415526</v>
+        <v>4331.950941944931</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.583930327773</v>
+        <v>4057.098538117445</v>
       </c>
       <c r="X43" t="n">
-        <v>1034.020033773578</v>
+        <v>4057.098538117445</v>
       </c>
       <c r="Y43" t="n">
-        <v>876.122141640221</v>
+        <v>3830.755769807186</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1947.065181502357</v>
+        <v>2538.475729536478</v>
       </c>
       <c r="C44" t="n">
-        <v>1520.164451515657</v>
+        <v>2111.574999549778</v>
       </c>
       <c r="D44" t="n">
-        <v>1096.871830700657</v>
+        <v>1688.282378734778</v>
       </c>
       <c r="E44" t="n">
-        <v>670.8948908485148</v>
+        <v>1262.305438882635</v>
       </c>
       <c r="F44" t="n">
-        <v>245.770709037915</v>
+        <v>837.1812570720355</v>
       </c>
       <c r="G44" t="n">
-        <v>245.770709037915</v>
+        <v>432.8421946614841</v>
       </c>
       <c r="H44" t="n">
-        <v>64.68215049679213</v>
+        <v>134.9738161355189</v>
       </c>
       <c r="I44" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J44" t="n">
-        <v>64.68215049679213</v>
+        <v>462.6804036958856</v>
       </c>
       <c r="K44" t="n">
-        <v>64.68215049679213</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L44" t="n">
-        <v>832.7826876461986</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>1633.224300044001</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="N44" t="n">
-        <v>2433.665912441804</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O44" t="n">
-        <v>3234.107524839606</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P44" t="n">
-        <v>3234.107524839606</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q44" t="n">
-        <v>3234.107524839606</v>
+        <v>4886.290909067602</v>
       </c>
       <c r="R44" t="n">
-        <v>3234.107524839606</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>3129.740230712747</v>
+        <v>4899.479949822645</v>
       </c>
       <c r="T44" t="n">
-        <v>3129.740230712747</v>
+        <v>4678.554378867278</v>
       </c>
       <c r="U44" t="n">
-        <v>3129.740230712747</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V44" t="n">
-        <v>2772.250815838996</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W44" t="n">
-        <v>2772.250815838996</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X44" t="n">
-        <v>2772.250815838996</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y44" t="n">
-        <v>2366.913545793887</v>
+        <v>2958.324093828008</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>631.8056415282474</v>
+        <v>3762.283104400451</v>
       </c>
       <c r="C45" t="n">
-        <v>514.2997380457522</v>
+        <v>3644.777200917955</v>
       </c>
       <c r="D45" t="n">
-        <v>410.4597795610372</v>
+        <v>3540.93724243324</v>
       </c>
       <c r="E45" t="n">
-        <v>305.7578458339744</v>
+        <v>3436.235308706178</v>
       </c>
       <c r="F45" t="n">
-        <v>212.1120155168786</v>
+        <v>3342.589478389082</v>
       </c>
       <c r="G45" t="n">
-        <v>118.0582437344825</v>
+        <v>3248.535706606686</v>
       </c>
       <c r="H45" t="n">
-        <v>64.68215049679213</v>
+        <v>3195.159613368996</v>
       </c>
       <c r="I45" t="n">
-        <v>72.12879345870397</v>
+        <v>3202.606256330908</v>
       </c>
       <c r="J45" t="n">
-        <v>72.12879345870397</v>
+        <v>3202.606256330908</v>
       </c>
       <c r="K45" t="n">
-        <v>72.12879345870397</v>
+        <v>3398.168248899535</v>
       </c>
       <c r="L45" t="n">
-        <v>72.12879345870397</v>
+        <v>3398.168248899535</v>
       </c>
       <c r="M45" t="n">
-        <v>872.5704058565066</v>
+        <v>3398.168248899535</v>
       </c>
       <c r="N45" t="n">
-        <v>1673.012018254309</v>
+        <v>3398.168248899535</v>
       </c>
       <c r="O45" t="n">
-        <v>1791.350470992599</v>
+        <v>4287.649526911006</v>
       </c>
       <c r="P45" t="n">
-        <v>1791.350470992599</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="Q45" t="n">
-        <v>1791.350470992599</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="R45" t="n">
-        <v>1873.369781077302</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="S45" t="n">
-        <v>1792.045533638556</v>
+        <v>4922.522996510759</v>
       </c>
       <c r="T45" t="n">
-        <v>1650.165597936235</v>
+        <v>4780.643060808437</v>
       </c>
       <c r="U45" t="n">
-        <v>1465.397401855871</v>
+        <v>4595.874864728074</v>
       </c>
       <c r="V45" t="n">
-        <v>1260.424262995137</v>
+        <v>4390.901725867341</v>
       </c>
       <c r="W45" t="n">
-        <v>1063.902885828355</v>
+        <v>4194.380348700558</v>
       </c>
       <c r="X45" t="n">
-        <v>900.4255395950178</v>
+        <v>4030.903002467221</v>
       </c>
       <c r="Y45" t="n">
-        <v>760.7326509483102</v>
+        <v>3891.210113820513</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>840.7502316559541</v>
+        <v>839.4237300567033</v>
       </c>
       <c r="C46" t="n">
-        <v>668.77766853487</v>
+        <v>839.4237300567033</v>
       </c>
       <c r="D46" t="n">
-        <v>668.77766853487</v>
+        <v>676.106957183474</v>
       </c>
       <c r="E46" t="n">
-        <v>502.5694626877236</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="F46" t="n">
-        <v>330.707688462284</v>
+        <v>509.8987513363276</v>
       </c>
       <c r="G46" t="n">
-        <v>164.4507187565162</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H46" t="n">
-        <v>164.4507187565162</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I46" t="n">
-        <v>64.68215049679213</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J46" t="n">
-        <v>122.1734787209502</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K46" t="n">
-        <v>348.7010799267873</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L46" t="n">
-        <v>703.3904012212081</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M46" t="n">
-        <v>1094.576196191459</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N46" t="n">
-        <v>1472.067707067495</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O46" t="n">
-        <v>1827.495835747258</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P46" t="n">
-        <v>2118.095047669159</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q46" t="n">
-        <v>2245.09517790992</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2198.056564597094</v>
+        <v>2233.451358979291</v>
       </c>
       <c r="S46" t="n">
-        <v>2027.921517116229</v>
+        <v>2063.316311498426</v>
       </c>
       <c r="T46" t="n">
-        <v>1784.582169342129</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="U46" t="n">
-        <v>1504.397720842433</v>
+        <v>1819.976963724326</v>
       </c>
       <c r="V46" t="n">
-        <v>1222.686253450462</v>
+        <v>1538.265496332355</v>
       </c>
       <c r="W46" t="n">
-        <v>1222.686253450462</v>
+        <v>1308.330394921156</v>
       </c>
       <c r="X46" t="n">
-        <v>980.1223568962668</v>
+        <v>1065.766498366961</v>
       </c>
       <c r="Y46" t="n">
-        <v>840.7502316559541</v>
+        <v>839.4237300567033</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>569.51856287543</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L2" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M2" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O2" t="n">
-        <v>37.3909593560241</v>
+        <v>181.6704383876113</v>
       </c>
       <c r="P2" t="n">
         <v>593.8031749258255</v>
       </c>
       <c r="Q2" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R2" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,31 +8057,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K3" t="n">
-        <v>578.6270469489275</v>
+        <v>268.0669951958121</v>
       </c>
       <c r="L3" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>380.3086605601454</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q3" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R3" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8155,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>152.9025226039392</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8216,28 +8218,28 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K5" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M5" t="n">
-        <v>300.4545145390017</v>
+        <v>86.17533235500369</v>
       </c>
       <c r="N5" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O5" t="n">
-        <v>593.6187724716183</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P5" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J6" t="n">
         <v>20.61111433333334</v>
@@ -8298,10 +8300,10 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L6" t="n">
-        <v>90.41920043198729</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>23.09678051232798</v>
+        <v>268.7645418748068</v>
       </c>
       <c r="N6" t="n">
         <v>577.5708413291358</v>
@@ -8310,13 +8312,13 @@
         <v>579.3997028378163</v>
       </c>
       <c r="P6" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8374,7 +8376,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464869</v>
+        <v>249.7804132464876</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8450,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>35.76460079480934</v>
+        <v>591.9924139104035</v>
       </c>
       <c r="L8" t="n">
-        <v>594.539855548217</v>
+        <v>572.0660045132436</v>
       </c>
       <c r="M8" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N8" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>86.13502881159596</v>
+        <v>593.6187724716183</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>593.8031749258255</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>578.6270469489275</v>
       </c>
       <c r="L9" t="n">
-        <v>22.51508671422956</v>
+        <v>467.1209648647325</v>
       </c>
       <c r="M9" t="n">
-        <v>579.3245936279221</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O9" t="n">
-        <v>173.9237914043267</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P9" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q9" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,25 +8692,25 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K11" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L11" t="n">
-        <v>846.8389236425245</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>845.9581441093334</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N11" t="n">
-        <v>845.8065040443477</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O11" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P11" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>326.9739104132929</v>
+        <v>287.4399897374262</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8766,22 +8768,22 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>22.51508671422956</v>
+        <v>354.5569311593796</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>829.8699094234432</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>767.1603027556729</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P12" t="n">
         <v>21.77084120482866</v>
@@ -8924,28 +8926,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>692.8799566205711</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>846.8389236425249</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N14" t="n">
-        <v>845.8065040443481</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O14" t="n">
-        <v>845.9178405659261</v>
+        <v>390.0005948959937</v>
       </c>
       <c r="P14" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q14" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R14" t="n">
         <v>153.7764225027789</v>
@@ -9000,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
@@ -9009,25 +9011,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
-        <v>831.0419679241317</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>23.09678051232798</v>
+        <v>861.2183961915432</v>
       </c>
       <c r="N15" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>318.1701737062714</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P15" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,7 +9172,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M17" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
         <v>1023.391803124043</v>
@@ -9179,13 +9181,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P17" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q17" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>153.7764225027789</v>
+        <v>54.56363491934598</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,25 +9239,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L18" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>1089.749849175</v>
+        <v>971.640792401891</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
         <v>21.77084120482866</v>
@@ -9401,13 +9403,13 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>758.5002654165255</v>
+        <v>659.2874778330922</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M20" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
         <v>1023.391803124043</v>
@@ -9416,10 +9418,10 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P20" t="n">
-        <v>100.0581876036193</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
         <v>153.7764225027789</v>
@@ -9483,25 +9485,25 @@
         <v>22.39923383333334</v>
       </c>
       <c r="L21" t="n">
-        <v>227.5743145228559</v>
+        <v>867.7664080100944</v>
       </c>
       <c r="M21" t="n">
-        <v>23.09678051232798</v>
+        <v>921.9548738586921</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R21" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9638,10 +9640,10 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>758.5002654165255</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>977.3272420480539</v>
+        <v>952.6858336296069</v>
       </c>
       <c r="M23" t="n">
         <v>1051.861668373228</v>
@@ -9653,13 +9655,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q23" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9723,10 +9725,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>1089.749849175</v>
+        <v>198.0542523912748</v>
       </c>
       <c r="N24" t="n">
-        <v>781.6471621574452</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
@@ -9735,10 +9737,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q24" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R24" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>29.41995948558652</v>
+        <v>268.1550667350203</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9884,19 +9886,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>585.0680802286672</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,7 +9953,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>22.39923383333334</v>
@@ -9960,10 +9962,10 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>749.7358553685299</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N27" t="n">
-        <v>1121.661155963915</v>
+        <v>507.2052537942219</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>758.5002654165255</v>
@@ -10118,7 +10120,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10127,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>585.0680802286672</v>
+        <v>653.7961895378362</v>
       </c>
       <c r="Q29" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10197,22 +10199,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>666.8880674041833</v>
+        <v>228.1560083209543</v>
       </c>
       <c r="N30" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P30" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,13 +10348,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>29.41995948558652</v>
+        <v>221.0580860608543</v>
       </c>
       <c r="K32" t="n">
-        <v>471.8155959159414</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
         <v>1051.861668373228</v>
@@ -10367,7 +10369,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10434,16 +10436,16 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>749.7358553685299</v>
+        <v>228.1560083209543</v>
       </c>
       <c r="N33" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
@@ -10583,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K35" t="n">
-        <v>590.5593685239236</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>977.3272420480539</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M35" t="n">
         <v>1051.861668373228</v>
@@ -10601,13 +10603,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>753.0089771212694</v>
+        <v>578.380983679471</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10659,25 +10661,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
-        <v>22.39923383333334</v>
+        <v>467.0745387486232</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M36" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>21.34302821354166</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O36" t="n">
-        <v>783.4760236661258</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
@@ -10820,16 +10822,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>116.2202743644417</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>977.3272420480539</v>
+        <v>878.1144544646206</v>
       </c>
       <c r="M38" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10838,13 +10840,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,7 +10910,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>749.7358553685299</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
         <v>1121.661155963915</v>
@@ -10917,10 +10919,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>22.7470382889785</v>
+        <v>25.95407573255603</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K41" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L41" t="n">
-        <v>846.8389236425245</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>845.9581441093334</v>
+        <v>681.7356392914811</v>
       </c>
       <c r="N41" t="n">
-        <v>845.8065040443477</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O41" t="n">
-        <v>813.250087789768</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P41" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,19 +11138,19 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>20.61111433333334</v>
+        <v>278.4163741766267</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
       </c>
       <c r="L42" t="n">
-        <v>831.0419679241312</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>233.0002206991003</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>829.8699094234432</v>
+        <v>1121.661155963915</v>
       </c>
       <c r="O42" t="n">
         <v>23.17188972222222</v>
@@ -11157,7 +11159,7 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L44" t="n">
-        <v>814.1711708663668</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>845.9581441093334</v>
+        <v>814.1663547822778</v>
       </c>
       <c r="N44" t="n">
-        <v>845.8065040443477</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>845.9178405659256</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P44" t="n">
-        <v>37.5753618102313</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q44" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R44" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,28 +11378,28 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>219.9366000642696</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>831.6236617222296</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>829.8699094234432</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>142.7056803669591</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23264,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>166.4378438361795</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23318,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>107.972031236933</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23419,19 +23421,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>66.62628970500738</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>15.45161649254004</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23492,10 +23494,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>230.2204506708087</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23552,16 +23554,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>107.9720312369329</v>
       </c>
     </row>
     <row r="15">
@@ -23650,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>68.81241886352718</v>
       </c>
       <c r="G16" t="n">
-        <v>52.32268659888638</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>95.11104415035108</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23938,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>240.905954296359</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>276.5769850937013</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>94.83953384262102</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,13 +24177,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>21.11005397370343</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24364,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6172179931341191</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>161.683605144497</v>
@@ -24376,13 +24378,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>14.46131411498402</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24598,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>132.4498071365905</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>12.50455128074731</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,16 +24846,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24883,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>44.43200966557646</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>255.3672684113431</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>67.62133122010833</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25090,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>113.8902123931291</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>110.0981677402028</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>71.9894918991925</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
         <v>164.5944000087102</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25552,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>56.16198359623262</v>
       </c>
       <c r="G40" t="n">
         <v>164.5944000087102</v>
@@ -25597,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>118.5577190788907</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25615,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="41">
@@ -25625,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>107.9720312369325</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>235.0655133922187</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25685,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25694,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25783,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,16 +25845,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>132.0055720445817</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>67.76042741513217</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25877,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>115.6120217849939</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25916,19 +25918,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>107.972031236933</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26023,22 +26025,22 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26077,19 +26079,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>44.46812939212515</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>86.10093663924582</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>437983.8679113199</v>
+        <v>581629.6023296788</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>437983.8679113199</v>
+        <v>581629.6023296786</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>590662.6299334154</v>
+        <v>590662.6299334153</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>590662.6299334154</v>
+        <v>590662.6299334153</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>590662.6299334153</v>
+        <v>590662.6299334154</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>437983.8679113199</v>
+        <v>581629.6023296789</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>437983.8679113199</v>
+        <v>581629.6023296788</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>436832.0010083724</v>
+        <v>436832.0010083723</v>
       </c>
       <c r="C2" t="n">
-        <v>436832.0010083724</v>
+        <v>436832.0010083722</v>
       </c>
       <c r="D2" t="n">
         <v>436832.0010083723</v>
       </c>
       <c r="E2" t="n">
-        <v>312571.8840020593</v>
+        <v>415076.8720882405</v>
       </c>
       <c r="F2" t="n">
-        <v>312571.8840020595</v>
+        <v>415076.8720882403</v>
       </c>
       <c r="G2" t="n">
         <v>421522.8023530854</v>
       </c>
       <c r="H2" t="n">
-        <v>421522.8023530855</v>
+        <v>421522.8023530854</v>
       </c>
       <c r="I2" t="n">
-        <v>421522.8023530855</v>
+        <v>421522.8023530853</v>
       </c>
       <c r="J2" t="n">
         <v>421522.8023530854</v>
       </c>
       <c r="K2" t="n">
+        <v>421522.8023530858</v>
+      </c>
+      <c r="L2" t="n">
+        <v>421522.8023530855</v>
+      </c>
+      <c r="M2" t="n">
         <v>421522.8023530853</v>
       </c>
-      <c r="L2" t="n">
-        <v>421522.8023530853</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>421522.8023530854</v>
       </c>
-      <c r="N2" t="n">
-        <v>421522.8023530853</v>
-      </c>
       <c r="O2" t="n">
-        <v>312571.8840020593</v>
+        <v>415076.8720882406</v>
       </c>
       <c r="P2" t="n">
-        <v>312571.8840020593</v>
+        <v>415076.8720882405</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>75330.95115346214</v>
+        <v>207432.2876165609</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>128890.3998115405</v>
+        <v>7625.622083481478</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62873.9369653738</v>
+        <v>173130.4912056396</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,10 +26426,10 @@
         <v>156753.0758057354</v>
       </c>
       <c r="E4" t="n">
-        <v>21799.09004189545</v>
+        <v>28980.6795211164</v>
       </c>
       <c r="F4" t="n">
-        <v>21799.09004189546</v>
+        <v>28980.6795211164</v>
       </c>
       <c r="G4" t="n">
         <v>29432.2870559115</v>
@@ -26442,7 +26444,7 @@
         <v>29432.2870559115</v>
       </c>
       <c r="K4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591145</v>
       </c>
       <c r="L4" t="n">
         <v>29432.2870559115</v>
@@ -26454,10 +26456,10 @@
         <v>29432.2870559115</v>
       </c>
       <c r="O4" t="n">
-        <v>21799.09004189545</v>
+        <v>28980.6795211164</v>
       </c>
       <c r="P4" t="n">
-        <v>21799.09004189545</v>
+        <v>28980.67952111639</v>
       </c>
     </row>
     <row r="5">
@@ -26476,10 +26478,10 @@
         <v>67446.25103742813</v>
       </c>
       <c r="E5" t="n">
-        <v>49158.43437756201</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="F5" t="n">
-        <v>49158.43437756204</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="G5" t="n">
         <v>77750.06218842969</v>
@@ -26503,13 +26505,13 @@
         <v>77750.06218842969</v>
       </c>
       <c r="N5" t="n">
-        <v>77750.06218842966</v>
+        <v>77750.06218842969</v>
       </c>
       <c r="O5" t="n">
-        <v>49158.43437756201</v>
+        <v>76058.47810803246</v>
       </c>
       <c r="P5" t="n">
-        <v>49158.43437756201</v>
+        <v>76058.47810803246</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26227.94075047164</v>
+        <v>26227.94075047155</v>
       </c>
       <c r="C6" t="n">
+        <v>212632.6741652087</v>
+      </c>
+      <c r="D6" t="n">
         <v>212632.6741652089</v>
       </c>
-      <c r="D6" t="n">
-        <v>212632.6741652087</v>
-      </c>
       <c r="E6" t="n">
-        <v>166283.4084291397</v>
+        <v>102605.4268425307</v>
       </c>
       <c r="F6" t="n">
-        <v>241614.3595826018</v>
+        <v>310037.7144590915</v>
       </c>
       <c r="G6" t="n">
-        <v>185450.0532972037</v>
+        <v>306714.8310252627</v>
       </c>
       <c r="H6" t="n">
+        <v>314340.4531087442</v>
+      </c>
+      <c r="I6" t="n">
+        <v>314340.4531087441</v>
+      </c>
+      <c r="J6" t="n">
+        <v>168806.7831739277</v>
+      </c>
+      <c r="K6" t="n">
+        <v>314340.4531087447</v>
+      </c>
+      <c r="L6" t="n">
         <v>314340.4531087443</v>
       </c>
-      <c r="I6" t="n">
-        <v>314340.4531087443</v>
-      </c>
-      <c r="J6" t="n">
-        <v>168806.7831739276</v>
-      </c>
-      <c r="K6" t="n">
-        <v>314340.4531087441</v>
-      </c>
-      <c r="L6" t="n">
-        <v>314340.4531087441</v>
-      </c>
       <c r="M6" t="n">
-        <v>251466.5161433704</v>
+        <v>141209.9619031046</v>
       </c>
       <c r="N6" t="n">
         <v>314340.4531087442</v>
       </c>
       <c r="O6" t="n">
-        <v>241614.3595826018</v>
+        <v>310037.7144590918</v>
       </c>
       <c r="P6" t="n">
-        <v>241614.3595826018</v>
+        <v>310037.7144590917</v>
       </c>
     </row>
   </sheetData>
@@ -26796,10 +26798,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="E4" t="n">
-        <v>808.5268812099016</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="F4" t="n">
-        <v>808.5268812099021</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="G4" t="n">
         <v>1278.783917572857</v>
@@ -26823,13 +26825,13 @@
         <v>1278.783917572857</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.783917572856</v>
+        <v>1278.783917572857</v>
       </c>
       <c r="O4" t="n">
-        <v>808.5268812099016</v>
+        <v>1250.961810987376</v>
       </c>
       <c r="P4" t="n">
-        <v>808.5268812099016</v>
+        <v>1250.961810987376</v>
       </c>
     </row>
   </sheetData>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>252.2990680943075</v>
+        <v>694.733997871782</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>470.2570363629548</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943075</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>252.2990680943075</v>
+        <v>694.733997871782</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>470.2570363629548</v>
+        <v>27.8221065854807</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27388,16 +27390,16 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>152.6181964616704</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>4.095730177743576</v>
       </c>
     </row>
     <row r="3">
@@ -27537,10 +27539,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>91.22347093296882</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27600,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>36.85370811560045</v>
       </c>
     </row>
     <row r="5">
@@ -27616,13 +27618,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>304.419399949462</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27631,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>55.08045499971968</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -27670,7 +27672,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27780,7 +27782,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27789,10 +27791,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>80.83293581217359</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27828,13 +27830,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>272.1038797892121</v>
+        <v>141.3294527982341</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,22 +27855,22 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>400</v>
-      </c>
-      <c r="D8" t="n">
-        <v>152.6181964616705</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>34.5479025439635</v>
@@ -27910,16 +27912,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>101.1659342747064</v>
       </c>
     </row>
     <row r="9">
@@ -28014,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28029,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>168.4336970060565</v>
@@ -28065,13 +28067,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>18.44967133088764</v>
+        <v>0.5934272398632174</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>533.7539620806207</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>144.2794790315872</v>
       </c>
       <c r="P2" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>245.6677613624788</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L3" t="n">
+      <c r="P3" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M3" t="n">
-        <v>357.2118800478174</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R3" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34875,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391542</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,28 +34938,28 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="M5" t="n">
-        <v>263.0232516395698</v>
+        <v>48.74406945557187</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35009,7 +35011,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -35018,10 +35020,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>67.90411371775774</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>245.6677613624788</v>
       </c>
       <c r="N6" t="n">
         <v>556.2278131155941</v>
@@ -35030,13 +35032,13 @@
         <v>556.2278131155941</v>
       </c>
       <c r="P6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35094,7 +35096,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937749</v>
+        <v>228.8157587937756</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L8" t="n">
+        <v>533.7539620806207</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="M8" t="n">
+      <c r="P8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="N8" t="n">
-        <v>556.2278131155941</v>
-      </c>
-      <c r="O8" t="n">
-        <v>48.74406945557187</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,34 +35248,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>444.6058781505029</v>
       </c>
       <c r="M9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>150.7519016821045</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35410,25 +35412,25 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L11" t="n">
-        <v>808.5268812099016</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>808.5268812099016</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>808.5268812099016</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>290.8492358086949</v>
+        <v>251.3153151328282</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35486,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>332.04184444515</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>808.5268812099016</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>743.9884130334507</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35644,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>657.1153558257618</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>808.5268812099021</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N14" t="n">
-        <v>808.5268812099021</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O14" t="n">
-        <v>808.5268812099021</v>
+        <v>352.6096355399696</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R14" t="n">
         <v>118.7437726079824</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35729,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>808.5268812099021</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>838.1216156792152</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>294.9982839840492</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P15" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35890,7 +35892,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M17" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>986.1121802895968</v>
@@ -35899,13 +35901,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P17" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>118.7437726079824</v>
+        <v>19.53098502454951</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>1066.653068662672</v>
+        <v>948.544011889563</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36121,13 +36123,13 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>722.7356646217162</v>
+        <v>623.5228770382829</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M20" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>986.1121802895968</v>
@@ -36136,10 +36138,10 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P20" t="n">
-        <v>62.48282579338804</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
         <v>118.7437726079824</v>
@@ -36203,25 +36205,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>205.0592278086264</v>
+        <v>845.2513212958648</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>898.8580933463641</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36358,10 +36360,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>722.7356646217162</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>939.015199615431</v>
+        <v>914.373791196984</v>
       </c>
       <c r="M23" t="n">
         <v>1014.430405473796</v>
@@ -36373,13 +36375,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P23" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36443,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1066.653068662672</v>
+        <v>174.9574718789468</v>
       </c>
       <c r="N24" t="n">
-        <v>760.3041339439036</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36455,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>238.7351072494338</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36604,19 +36606,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>547.4927184184359</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,10 +36682,10 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>726.6390748562019</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N27" t="n">
-        <v>1100.318127750374</v>
+        <v>485.8622255806802</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
         <v>722.7356646217162</v>
@@ -36838,7 +36840,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36847,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>547.4927184184359</v>
+        <v>616.220827727605</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>643.7912868918553</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="N30" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,13 +37068,13 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>191.6381265752677</v>
       </c>
       <c r="K32" t="n">
-        <v>436.0509951211321</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>1014.430405473796</v>
@@ -37087,7 +37089,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37154,16 +37156,16 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>726.6390748562019</v>
+        <v>205.0592278086264</v>
       </c>
       <c r="N33" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37303,13 +37305,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K35" t="n">
-        <v>554.7947677291143</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>939.015199615431</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>1014.430405473796</v>
@@ -37321,13 +37323,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>715.433615311038</v>
+        <v>540.8056218692396</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>444.6753049152899</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O36" t="n">
-        <v>760.3041339439036</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37540,16 +37542,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>86.8003148788552</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K38" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>939.015199615431</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37558,13 +37560,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,7 +37630,7 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>726.6390748562019</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>1100.318127750374</v>
@@ -37637,10 +37639,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>3.207037443577533</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L41" t="n">
-        <v>808.5268812099016</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>808.5268812099016</v>
+        <v>644.3043763920493</v>
       </c>
       <c r="N41" t="n">
-        <v>808.5268812099016</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O41" t="n">
-        <v>775.859128433744</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>257.8052598432934</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>808.5268812099016</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>209.9034401867723</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>808.5268812099016</v>
+        <v>1100.318127750374</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L44" t="n">
-        <v>775.8591284337439</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>808.5268812099016</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="N44" t="n">
-        <v>808.5268812099016</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>808.5268812099016</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,28 +38098,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>197.5373662309363</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>808.5268812099016</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>808.5268812099016</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>119.5337906447369</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_30.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_2_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1891242.145228784</v>
+        <v>1890524.155113925</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11857191.11602537</v>
+        <v>11857191.11602536</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>698313.683076074</v>
+        <v>698313.6830760736</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>15.64988064861473</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D2" t="n">
-        <v>19.05969460684969</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
         <v>21.71717045362101</v>
@@ -676,10 +676,10 @@
         <v>0.2956717864458369</v>
       </c>
       <c r="H2" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>255.7713603095518</v>
+        <v>49.49512077555075</v>
       </c>
       <c r="V2" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
-        <v>397.188167166915</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="3">
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>51.58543740429482</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
         <v>240.905954296359</v>
@@ -882,10 +882,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y4" t="n">
-        <v>187.2256325115549</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="5">
@@ -898,25 +898,25 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
-        <v>22.63172268683286</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D5" t="n">
         <v>19.05969460684969</v>
       </c>
       <c r="E5" t="n">
-        <v>421.717170453621</v>
+        <v>21.71717045362101</v>
       </c>
       <c r="F5" t="n">
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2956717864458369</v>
+        <v>22.81545381537675</v>
       </c>
       <c r="H5" t="n">
-        <v>239.8092397409858</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X5" t="n">
-        <v>7.602798843930202</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
         <v>401.2838973446586</v>
@@ -1068,10 +1068,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H7" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1104,25 +1104,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
-        <v>130.774426990978</v>
+        <v>126.9396299842469</v>
       </c>
       <c r="X7" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1135,16 +1135,16 @@
         <v>15.64988064861473</v>
       </c>
       <c r="C8" t="n">
-        <v>422.6317226868329</v>
+        <v>22.63172268683286</v>
       </c>
       <c r="D8" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>21.71717045362101</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
-        <v>20.87293999249374</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G8" t="n">
         <v>400.2956717864458</v>
@@ -1153,7 +1153,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>16.73390230529095</v>
       </c>
       <c r="U8" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>7.602798843930202</v>
       </c>
       <c r="Y8" t="n">
-        <v>300.1179630699521</v>
+        <v>1.283897344658556</v>
       </c>
     </row>
     <row r="9">
@@ -1296,7 +1296,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
         <v>164.546123788675</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>115.1055716303386</v>
       </c>
       <c r="W10" t="n">
-        <v>271.5104525493489</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
@@ -1387,7 +1387,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8896947407055</v>
+        <v>290.2412846893639</v>
       </c>
       <c r="I11" t="n">
         <v>34.5479025439635</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>218.7163152458132</v>
@@ -1432,7 +1432,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>284.4554049657235</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>124.7343684644404</v>
       </c>
       <c r="H13" t="n">
-        <v>75.73201610191977</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>168.4336970060565</v>
@@ -1587,7 +1587,7 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
@@ -1660,7 +1660,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>110.7442840088803</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -1675,7 +1675,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y14" t="n">
-        <v>293.3118661077256</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1764,25 +1764,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>121.9815308269504</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>101.330737619658</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
         <v>240.905954296359</v>
@@ -1849,7 +1849,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068506</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
@@ -1912,7 +1912,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
-        <v>401.2838973446586</v>
+        <v>401.2838973446598</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>47.24726165657607</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>108.9003822517807</v>
       </c>
       <c r="U19" t="n">
         <v>277.3826040146988</v>
@@ -2067,7 +2067,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>224.0793406271554</v>
@@ -2092,7 +2092,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924947</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
         <v>400.2956717864458</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T20" t="n">
         <v>218.7163152458132</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>75.41330364725212</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686744</v>
       </c>
       <c r="T22" t="n">
         <v>240.905954296359</v>
@@ -2487,13 +2487,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>150.1330858937262</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>96.44420510686429</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
         <v>277.3826040146988</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>55.81450188835453</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
         <v>161.683605144497</v>
@@ -2724,7 +2724,7 @@
         <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G28" t="n">
         <v>164.5944000087102</v>
@@ -2769,13 +2769,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>76.64068269426208</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2857,7 +2857,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439315</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -2958,16 +2958,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>4.322062388456432</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H31" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>277.3826040146988</v>
@@ -3012,7 +3012,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>16.73661137786902</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
@@ -3189,13 +3189,13 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
         <v>170.1431564831852</v>
@@ -3204,10 +3204,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>28.46809341379804</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>168.4336970060565</v>
+        <v>8.209635605837729</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>277.3826040146988</v>
@@ -3252,7 +3252,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
         <v>224.0793406271554</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>78.16614128474215</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
         <v>170.2528374898731</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3483,13 +3483,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X37" t="n">
-        <v>240.1382575886529</v>
+        <v>101.9817367508643</v>
       </c>
       <c r="Y37" t="n">
         <v>224.0793406271554</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>103.3236211855919</v>
       </c>
       <c r="T38" t="n">
         <v>218.7163152458132</v>
@@ -3562,7 +3562,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V38" t="n">
-        <v>353.9145207250137</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F40" t="n">
-        <v>113.9811728869526</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>142.3668648089876</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>307.6778494116822</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
         <v>422.6317226868329</v>
@@ -3751,7 +3751,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>312.9009087555611</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
@@ -3903,13 +3903,13 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3918,7 +3918,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>25.45817320599514</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3957,13 +3957,13 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>146.8887806734697</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
         <v>224.0793406271554</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.7163152458132</v>
+        <v>214.0679051944713</v>
       </c>
       <c r="U44" t="n">
-        <v>147.7993290726188</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
         <v>353.914520725013</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>164.546123788675</v>
+        <v>104.9037564455519</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,22 +4182,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>227.635750397087</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
         <v>240.1382575886529</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>462.6949895047144</v>
+        <v>938.0105478030287</v>
       </c>
       <c r="C2" t="n">
-        <v>439.8346635584186</v>
+        <v>511.1098178163287</v>
       </c>
       <c r="D2" t="n">
-        <v>420.5824467838229</v>
+        <v>87.81719700132894</v>
       </c>
       <c r="E2" t="n">
-        <v>398.6459109720846</v>
+        <v>65.88066118959054</v>
       </c>
       <c r="F2" t="n">
-        <v>377.5621332018889</v>
+        <v>44.79688341939484</v>
       </c>
       <c r="G2" t="n">
-        <v>377.2634748317415</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H2" t="n">
-        <v>79.39509630577632</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="I2" t="n">
         <v>44.49822504924753</v>
@@ -4333,7 +4333,7 @@
         <v>407.101683866143</v>
       </c>
       <c r="K2" t="n">
-        <v>957.7672188505812</v>
+        <v>407.101683866143</v>
       </c>
       <c r="L2" t="n">
         <v>957.7672188505812</v>
@@ -4342,10 +4342,10 @@
         <v>957.7672188505812</v>
       </c>
       <c r="N2" t="n">
-        <v>957.7672188505812</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="O2" t="n">
-        <v>1100.603903091853</v>
+        <v>1508.432753835019</v>
       </c>
       <c r="P2" t="n">
         <v>1651.269438076291</v>
@@ -4357,25 +4357,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S2" t="n">
-        <v>2120.543958335517</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="T2" t="n">
-        <v>1899.61838738015</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="U2" t="n">
-        <v>1641.263477976562</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="V2" t="n">
-        <v>1283.774063102812</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="W2" t="n">
-        <v>887.3827134031587</v>
+        <v>2174.916180971921</v>
       </c>
       <c r="X2" t="n">
-        <v>879.7031186113101</v>
+        <v>1763.196182139669</v>
       </c>
       <c r="Y2" t="n">
-        <v>478.5029497558403</v>
+        <v>1357.858912094559</v>
       </c>
     </row>
     <row r="3">
@@ -4409,28 +4409,28 @@
         <v>44.49822504924753</v>
       </c>
       <c r="J3" t="n">
-        <v>44.49822504924753</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="K3" t="n">
-        <v>287.7093087981016</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="L3" t="n">
-        <v>287.7093087981016</v>
+        <v>316.1957143288386</v>
       </c>
       <c r="M3" t="n">
-        <v>287.7093087981016</v>
+        <v>669.8354755761777</v>
       </c>
       <c r="N3" t="n">
-        <v>287.7093087981016</v>
+        <v>1220.501010560616</v>
       </c>
       <c r="O3" t="n">
-        <v>838.3748437825398</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="P3" t="n">
-        <v>1389.040378766978</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="Q3" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R3" t="n">
         <v>1853.185855629757</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>955.7067844524004</v>
+        <v>268.5772905989122</v>
       </c>
       <c r="C4" t="n">
-        <v>955.7067844524004</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="D4" t="n">
-        <v>792.3900115791711</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="E4" t="n">
-        <v>626.1818057320246</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="F4" t="n">
-        <v>454.3200315065851</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="G4" t="n">
-        <v>288.0630618008172</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="H4" t="n">
-        <v>144.2667933089716</v>
+        <v>96.60472747782816</v>
       </c>
       <c r="I4" t="n">
         <v>44.49822504924753</v>
       </c>
       <c r="J4" t="n">
-        <v>101.9895532734055</v>
+        <v>101.9895532734062</v>
       </c>
       <c r="K4" t="n">
-        <v>328.5171544792427</v>
+        <v>328.5171544792433</v>
       </c>
       <c r="L4" t="n">
-        <v>683.2064757736634</v>
+        <v>683.2064757736641</v>
       </c>
       <c r="M4" t="n">
-        <v>1074.392270743914</v>
+        <v>1074.392270743915</v>
       </c>
       <c r="N4" t="n">
-        <v>1451.88378161995</v>
+        <v>1451.883781619951</v>
       </c>
       <c r="O4" t="n">
-        <v>1807.311910299713</v>
+        <v>1807.311910299714</v>
       </c>
       <c r="P4" t="n">
-        <v>2097.911122221614</v>
+        <v>2097.911122221615</v>
       </c>
       <c r="Q4" t="n">
         <v>2224.911252462377</v>
       </c>
       <c r="R4" t="n">
-        <v>2224.911252462377</v>
+        <v>2177.87263914955</v>
       </c>
       <c r="S4" t="n">
-        <v>2224.911252462377</v>
+        <v>2007.737591668685</v>
       </c>
       <c r="T4" t="n">
-        <v>1981.571904688276</v>
+        <v>1764.398243894585</v>
       </c>
       <c r="U4" t="n">
-        <v>1701.387456188581</v>
+        <v>1484.213795394889</v>
       </c>
       <c r="V4" t="n">
-        <v>1419.67598879661</v>
+        <v>1202.502328002918</v>
       </c>
       <c r="W4" t="n">
-        <v>1144.823584969123</v>
+        <v>927.6499241754307</v>
       </c>
       <c r="X4" t="n">
-        <v>1144.823584969123</v>
+        <v>685.0860276212358</v>
       </c>
       <c r="Y4" t="n">
-        <v>955.7067844524004</v>
+        <v>458.7432593109778</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>776.2016990565496</v>
+        <v>591.614269593831</v>
       </c>
       <c r="C5" t="n">
-        <v>753.3413731102538</v>
+        <v>164.7135396071311</v>
       </c>
       <c r="D5" t="n">
-        <v>734.0891563356581</v>
+        <v>145.4613228325354</v>
       </c>
       <c r="E5" t="n">
-        <v>308.1122164835157</v>
+        <v>123.524787020797</v>
       </c>
       <c r="F5" t="n">
-        <v>287.02843871332</v>
+        <v>102.4410092506013</v>
       </c>
       <c r="G5" t="n">
-        <v>286.7297803431726</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="H5" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I5" t="n">
         <v>44.49822504924753</v>
@@ -4573,22 +4573,22 @@
         <v>957.7672188505812</v>
       </c>
       <c r="L5" t="n">
-        <v>1508.432753835019</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="M5" t="n">
-        <v>1556.689382596036</v>
+        <v>1218.160237973755</v>
       </c>
       <c r="N5" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="O5" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="P5" t="n">
-        <v>2107.354917580474</v>
+        <v>1768.825772958194</v>
       </c>
       <c r="Q5" t="n">
-        <v>2107.354917580474</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="R5" t="n">
         <v>2224.911252462377</v>
@@ -4600,19 +4600,19 @@
         <v>2224.911252462377</v>
       </c>
       <c r="U5" t="n">
-        <v>1966.556343058789</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="V5" t="n">
-        <v>1609.066928185038</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="W5" t="n">
-        <v>1609.066928185038</v>
+        <v>1828.519902762723</v>
       </c>
       <c r="X5" t="n">
-        <v>1601.387333393189</v>
+        <v>1416.799903930471</v>
       </c>
       <c r="Y5" t="n">
-        <v>1196.05006334808</v>
+        <v>1011.462633885361</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I6" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J6" t="n">
-        <v>44.49822504924753</v>
+        <v>323.6423572907505</v>
       </c>
       <c r="K6" t="n">
-        <v>44.49822504924753</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="L6" t="n">
-        <v>44.49822504924753</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="M6" t="n">
-        <v>287.7093087981016</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="N6" t="n">
-        <v>838.3748437825398</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="O6" t="n">
-        <v>1389.040378766978</v>
+        <v>874.3078922751886</v>
       </c>
       <c r="P6" t="n">
-        <v>1389.040378766978</v>
+        <v>1307.021068682275</v>
       </c>
       <c r="Q6" t="n">
-        <v>1853.185855629757</v>
+        <v>1771.166545545054</v>
       </c>
       <c r="R6" t="n">
         <v>1853.185855629757</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>861.6538096079925</v>
+        <v>884.1145108219148</v>
       </c>
       <c r="C7" t="n">
-        <v>689.6812464869084</v>
+        <v>712.1419477008308</v>
       </c>
       <c r="D7" t="n">
-        <v>526.3644736136791</v>
+        <v>548.8251748276015</v>
       </c>
       <c r="E7" t="n">
-        <v>360.1562677665327</v>
+        <v>382.616968980455</v>
       </c>
       <c r="F7" t="n">
-        <v>188.2944935410931</v>
+        <v>210.7551947550154</v>
       </c>
       <c r="G7" t="n">
-        <v>188.2944935410931</v>
+        <v>44.49822504924753</v>
       </c>
       <c r="H7" t="n">
         <v>44.49822504924753</v>
@@ -4728,49 +4728,49 @@
         <v>101.9895532734055</v>
       </c>
       <c r="K7" t="n">
-        <v>328.5171544792433</v>
+        <v>328.5171544792427</v>
       </c>
       <c r="L7" t="n">
-        <v>683.2064757736641</v>
+        <v>683.2064757736634</v>
       </c>
       <c r="M7" t="n">
-        <v>1074.392270743915</v>
+        <v>1074.392270743914</v>
       </c>
       <c r="N7" t="n">
-        <v>1451.883781619951</v>
+        <v>1451.88378161995</v>
       </c>
       <c r="O7" t="n">
-        <v>1807.311910299714</v>
+        <v>1807.311910299713</v>
       </c>
       <c r="P7" t="n">
-        <v>2097.911122221615</v>
+        <v>2097.911122221614</v>
       </c>
       <c r="Q7" t="n">
-        <v>2224.911252462377</v>
+        <v>2224.911252462376</v>
       </c>
       <c r="R7" t="n">
-        <v>2177.87263914955</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="S7" t="n">
-        <v>2177.87263914955</v>
+        <v>2007.737591668684</v>
       </c>
       <c r="T7" t="n">
-        <v>1934.53329137545</v>
+        <v>1764.398243894584</v>
       </c>
       <c r="U7" t="n">
-        <v>1934.53329137545</v>
+        <v>1484.213795394888</v>
       </c>
       <c r="V7" t="n">
-        <v>1652.821823983478</v>
+        <v>1202.502328002917</v>
       </c>
       <c r="W7" t="n">
-        <v>1520.726443184511</v>
+        <v>1074.28047953398</v>
       </c>
       <c r="X7" t="n">
-        <v>1278.162546630316</v>
+        <v>1074.28047953398</v>
       </c>
       <c r="Y7" t="n">
-        <v>1051.819778320058</v>
+        <v>1074.28047953398</v>
       </c>
     </row>
     <row r="8">
@@ -4780,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1639.919330369398</v>
+        <v>2078.856605666331</v>
       </c>
       <c r="C8" t="n">
-        <v>1213.018600382698</v>
+        <v>2055.996279720035</v>
       </c>
       <c r="D8" t="n">
-        <v>789.7259795676982</v>
+        <v>1632.703658905035</v>
       </c>
       <c r="E8" t="n">
-        <v>767.7894437559598</v>
+        <v>1206.726719052893</v>
       </c>
       <c r="F8" t="n">
-        <v>746.7056659857641</v>
+        <v>781.6025372422929</v>
       </c>
       <c r="G8" t="n">
-        <v>342.3666035752127</v>
+        <v>377.2634748317415</v>
       </c>
       <c r="H8" t="n">
-        <v>44.49822504924753</v>
+        <v>79.39509630577632</v>
       </c>
       <c r="I8" t="n">
         <v>44.49822504924753</v>
@@ -4807,19 +4807,19 @@
         <v>44.49822504924753</v>
       </c>
       <c r="K8" t="n">
+        <v>44.49822504924753</v>
+      </c>
+      <c r="L8" t="n">
         <v>595.1637600336857</v>
       </c>
-      <c r="L8" t="n">
-        <v>1123.5801824935</v>
-      </c>
       <c r="M8" t="n">
-        <v>1123.5801824935</v>
+        <v>1145.829295018124</v>
       </c>
       <c r="N8" t="n">
-        <v>1123.5801824935</v>
+        <v>1696.494830002562</v>
       </c>
       <c r="O8" t="n">
-        <v>1674.245717477938</v>
+        <v>2224.911252462377</v>
       </c>
       <c r="P8" t="n">
         <v>2224.911252462377</v>
@@ -4831,25 +4831,25 @@
         <v>2224.911252462377</v>
       </c>
       <c r="S8" t="n">
-        <v>2224.911252462377</v>
+        <v>2120.543958335517</v>
       </c>
       <c r="T8" t="n">
-        <v>2224.911252462377</v>
+        <v>2103.641026714011</v>
       </c>
       <c r="U8" t="n">
-        <v>1966.556343058789</v>
+        <v>2103.641026714011</v>
       </c>
       <c r="V8" t="n">
-        <v>1966.556343058789</v>
+        <v>2103.641026714011</v>
       </c>
       <c r="W8" t="n">
-        <v>1966.556343058789</v>
+        <v>2103.641026714011</v>
       </c>
       <c r="X8" t="n">
-        <v>1958.87674826694</v>
+        <v>2095.961431922162</v>
       </c>
       <c r="Y8" t="n">
-        <v>1655.727290620524</v>
+        <v>2094.664565917457</v>
       </c>
     </row>
     <row r="9">
@@ -4880,25 +4880,25 @@
         <v>44.49822504924753</v>
       </c>
       <c r="I9" t="n">
-        <v>44.49822504924753</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="J9" t="n">
-        <v>316.1957143288386</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="K9" t="n">
-        <v>866.8612493132769</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="L9" t="n">
-        <v>1307.021068682275</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="M9" t="n">
-        <v>1307.021068682275</v>
+        <v>51.94486801115937</v>
       </c>
       <c r="N9" t="n">
-        <v>1307.021068682275</v>
+        <v>205.6899987133984</v>
       </c>
       <c r="O9" t="n">
-        <v>1307.021068682275</v>
+        <v>756.3555336978366</v>
       </c>
       <c r="P9" t="n">
         <v>1307.021068682275</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>964.3625747002551</v>
+        <v>1127.679347573484</v>
       </c>
       <c r="C10" t="n">
-        <v>792.3900115791711</v>
+        <v>955.7067844524004</v>
       </c>
       <c r="D10" t="n">
         <v>792.3900115791711</v>
@@ -4995,19 +4995,19 @@
         <v>2177.872639149549</v>
       </c>
       <c r="U10" t="n">
-        <v>1897.688190649853</v>
+        <v>2177.872639149549</v>
       </c>
       <c r="V10" t="n">
-        <v>1897.688190649853</v>
+        <v>2061.60438497749</v>
       </c>
       <c r="W10" t="n">
-        <v>1623.435208276773</v>
+        <v>1786.751981150003</v>
       </c>
       <c r="X10" t="n">
-        <v>1380.871311722579</v>
+        <v>1544.188084595808</v>
       </c>
       <c r="Y10" t="n">
-        <v>1154.528543412321</v>
+        <v>1317.84531628555</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2538.475729536478</v>
+        <v>2533.780365848253</v>
       </c>
       <c r="C11" t="n">
-        <v>2111.574999549778</v>
+        <v>2106.879635861554</v>
       </c>
       <c r="D11" t="n">
-        <v>1688.282378734778</v>
+        <v>1683.587015046554</v>
       </c>
       <c r="E11" t="n">
-        <v>1262.305438882635</v>
+        <v>1257.610075194411</v>
       </c>
       <c r="F11" t="n">
-        <v>837.1812570720355</v>
+        <v>832.4858933838116</v>
       </c>
       <c r="G11" t="n">
-        <v>432.8421946614841</v>
+        <v>428.1468309732602</v>
       </c>
       <c r="H11" t="n">
         <v>134.9738161355189</v>
@@ -5050,16 +5050,16 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M11" t="n">
-        <v>2107.813759290661</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="N11" t="n">
-        <v>3084.064817777362</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O11" t="n">
-        <v>3929.209467928174</v>
+        <v>3721.926150405491</v>
       </c>
       <c r="P11" t="n">
-        <v>4637.488747086102</v>
+        <v>4430.205429563419</v>
       </c>
       <c r="Q11" t="n">
         <v>4886.290909067602</v>
@@ -5068,25 +5068,25 @@
         <v>5003.847243949504</v>
       </c>
       <c r="S11" t="n">
-        <v>4899.479949822645</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T11" t="n">
-        <v>4678.554378867278</v>
+        <v>4782.921672994137</v>
       </c>
       <c r="U11" t="n">
-        <v>4420.19946946369</v>
+        <v>4524.566763590549</v>
       </c>
       <c r="V11" t="n">
-        <v>4062.710054589939</v>
+        <v>4167.077348716799</v>
       </c>
       <c r="W11" t="n">
-        <v>3775.38136270537</v>
+        <v>3770.685999017146</v>
       </c>
       <c r="X11" t="n">
-        <v>3363.661363873117</v>
+        <v>3358.966000184893</v>
       </c>
       <c r="Y11" t="n">
-        <v>2958.324093828008</v>
+        <v>2953.628730139784</v>
       </c>
     </row>
     <row r="12">
@@ -5126,16 +5126,16 @@
         <v>690.5618714473296</v>
       </c>
       <c r="L12" t="n">
-        <v>1019.283297448028</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="M12" t="n">
-        <v>1019.283297448028</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="N12" t="n">
-        <v>1019.283297448028</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="O12" t="n">
-        <v>1908.7645754595</v>
+        <v>1192.566858421002</v>
       </c>
       <c r="P12" t="n">
         <v>1908.7645754595</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>605.867477820625</v>
+        <v>561.3605924535462</v>
       </c>
       <c r="C13" t="n">
-        <v>605.867477820625</v>
+        <v>389.3880293324622</v>
       </c>
       <c r="D13" t="n">
-        <v>442.5507049473957</v>
+        <v>226.0712564592329</v>
       </c>
       <c r="E13" t="n">
-        <v>276.3424991002493</v>
+        <v>226.0712564592329</v>
       </c>
       <c r="F13" t="n">
-        <v>276.3424991002493</v>
+        <v>226.0712564592329</v>
       </c>
       <c r="G13" t="n">
-        <v>276.3424991002493</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H13" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I13" t="n">
         <v>100.0769448789901</v>
@@ -5223,28 +5223,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R13" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S13" t="n">
-        <v>2063.316311498426</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T13" t="n">
-        <v>1819.976963724326</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U13" t="n">
-        <v>1539.792515224631</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="V13" t="n">
-        <v>1539.792515224631</v>
+        <v>1305.119661145486</v>
       </c>
       <c r="W13" t="n">
-        <v>1264.940111397143</v>
+        <v>1030.267257317999</v>
       </c>
       <c r="X13" t="n">
-        <v>1022.376214842949</v>
+        <v>787.7033607638042</v>
       </c>
       <c r="Y13" t="n">
-        <v>796.0334465326906</v>
+        <v>561.3605924535462</v>
       </c>
     </row>
     <row r="14">
@@ -5281,16 +5281,16 @@
         <v>462.6804036958856</v>
       </c>
       <c r="K14" t="n">
-        <v>462.6804036958856</v>
+        <v>1178.188711671385</v>
       </c>
       <c r="L14" t="n">
-        <v>1392.305451315162</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="M14" t="n">
-        <v>2396.59155273422</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N14" t="n">
-        <v>3372.842611220921</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O14" t="n">
         <v>3721.926150405491</v>
@@ -5308,19 +5308,19 @@
         <v>4899.479949822645</v>
       </c>
       <c r="T14" t="n">
-        <v>4678.554378867278</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U14" t="n">
-        <v>4420.19946946369</v>
+        <v>4529.262127278774</v>
       </c>
       <c r="V14" t="n">
-        <v>4062.710054589939</v>
+        <v>4171.772712405023</v>
       </c>
       <c r="W14" t="n">
-        <v>3666.318704890286</v>
+        <v>3775.38136270537</v>
       </c>
       <c r="X14" t="n">
-        <v>3254.598706058034</v>
+        <v>3363.661363873117</v>
       </c>
       <c r="Y14" t="n">
         <v>2958.324093828008</v>
@@ -5354,28 +5354,28 @@
         <v>100.0769448789901</v>
       </c>
       <c r="I15" t="n">
-        <v>107.5235878409019</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J15" t="n">
-        <v>107.5235878409019</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K15" t="n">
-        <v>107.5235878409019</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L15" t="n">
-        <v>107.5235878409019</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M15" t="n">
-        <v>937.263987363325</v>
+        <v>1156.063482855035</v>
       </c>
       <c r="N15" t="n">
-        <v>937.263987363325</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="O15" t="n">
-        <v>1826.745265374797</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="P15" t="n">
-        <v>1826.745265374797</v>
+        <v>1362.599788512017</v>
       </c>
       <c r="Q15" t="n">
         <v>1826.745265374797</v>
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>684.4570266215845</v>
+        <v>438.1469249515761</v>
       </c>
       <c r="C16" t="n">
-        <v>512.4844635005005</v>
+        <v>438.1469249515761</v>
       </c>
       <c r="D16" t="n">
-        <v>512.4844635005005</v>
+        <v>438.1469249515761</v>
       </c>
       <c r="E16" t="n">
-        <v>512.4844635005005</v>
+        <v>271.9387191044297</v>
       </c>
       <c r="F16" t="n">
-        <v>410.1301830766035</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G16" t="n">
-        <v>243.8732133708357</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H16" t="n">
         <v>100.0769448789901</v>
@@ -5460,28 +5460,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R16" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S16" t="n">
-        <v>2233.451358979291</v>
+        <v>2110.354924811253</v>
       </c>
       <c r="T16" t="n">
-        <v>1990.112011205191</v>
+        <v>1867.015577037153</v>
       </c>
       <c r="U16" t="n">
-        <v>1709.927562705496</v>
+        <v>1586.831128537457</v>
       </c>
       <c r="V16" t="n">
-        <v>1428.216095313524</v>
+        <v>1305.119661145486</v>
       </c>
       <c r="W16" t="n">
-        <v>1153.363691486037</v>
+        <v>1030.267257317999</v>
       </c>
       <c r="X16" t="n">
-        <v>910.7997949318425</v>
+        <v>787.7033607638042</v>
       </c>
       <c r="Y16" t="n">
-        <v>684.4570266215845</v>
+        <v>561.3605924535462</v>
       </c>
     </row>
     <row r="17">
@@ -5491,10 +5491,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C17" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D17" t="n">
         <v>1690.508147261616</v>
@@ -5527,16 +5527,16 @@
         <v>2110.0395278175</v>
       </c>
       <c r="N17" t="n">
-        <v>3086.290586304201</v>
+        <v>2988.069926596602</v>
       </c>
       <c r="O17" t="n">
-        <v>3931.435236455013</v>
+        <v>3833.214576747414</v>
       </c>
       <c r="P17" t="n">
-        <v>4639.71451561294</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="Q17" t="n">
-        <v>5095.799995117123</v>
+        <v>4997.579335409525</v>
       </c>
       <c r="R17" t="n">
         <v>5115.135670291427</v>
@@ -5560,7 +5560,7 @@
         <v>3365.887132399956</v>
       </c>
       <c r="Y17" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="18">
@@ -5603,19 +5603,19 @@
         <v>971.931772215671</v>
       </c>
       <c r="M18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O18" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P18" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q18" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R18" t="n">
         <v>1910.990343986338</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>759.8870954416583</v>
+        <v>919.4582979645735</v>
       </c>
       <c r="C19" t="n">
-        <v>587.9145323205743</v>
+        <v>747.4857348434895</v>
       </c>
       <c r="D19" t="n">
-        <v>587.9145323205743</v>
+        <v>584.1689619702602</v>
       </c>
       <c r="E19" t="n">
-        <v>587.9145323205743</v>
+        <v>417.9607561231137</v>
       </c>
       <c r="F19" t="n">
-        <v>416.0527580951347</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="G19" t="n">
-        <v>249.7957883893668</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H19" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I19" t="n">
         <v>102.3027134058285</v>
@@ -5694,31 +5694,31 @@
         <v>2155.715610578195</v>
       </c>
       <c r="Q19" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="R19" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="S19" t="n">
-        <v>2065.542080025265</v>
+        <v>2282.715740818961</v>
       </c>
       <c r="T19" t="n">
-        <v>2065.542080025265</v>
+        <v>2172.715354706051</v>
       </c>
       <c r="U19" t="n">
-        <v>1785.357631525569</v>
+        <v>1892.530906206355</v>
       </c>
       <c r="V19" t="n">
-        <v>1503.646164133598</v>
+        <v>1610.819438814384</v>
       </c>
       <c r="W19" t="n">
-        <v>1228.793760306111</v>
+        <v>1335.967034986897</v>
       </c>
       <c r="X19" t="n">
-        <v>986.2298637519162</v>
+        <v>1335.967034986897</v>
       </c>
       <c r="Y19" t="n">
-        <v>759.8870954416583</v>
+        <v>1109.624266676639</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2540.701498063317</v>
+        <v>2540.701498063316</v>
       </c>
       <c r="C20" t="n">
-        <v>2113.800768076617</v>
+        <v>2113.800768076616</v>
       </c>
       <c r="D20" t="n">
-        <v>1690.508147261617</v>
+        <v>1690.508147261616</v>
       </c>
       <c r="E20" t="n">
-        <v>1264.531207409475</v>
+        <v>1264.531207409474</v>
       </c>
       <c r="F20" t="n">
         <v>839.4070255988738</v>
@@ -5755,13 +5755,13 @@
         <v>464.9061722227241</v>
       </c>
       <c r="K20" t="n">
-        <v>1082.193820490624</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M20" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N20" t="n">
         <v>2988.069926596602</v>
@@ -5779,25 +5779,25 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S20" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T20" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U20" t="n">
         <v>4531.487895805612</v>
       </c>
       <c r="V20" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W20" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X20" t="n">
-        <v>3365.887132399956</v>
+        <v>3365.887132399955</v>
       </c>
       <c r="Y20" t="n">
-        <v>2960.549862354847</v>
+        <v>2960.549862354846</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I21" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J21" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K21" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L21" t="n">
-        <v>939.1015214887346</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M21" t="n">
-        <v>1828.971033901635</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N21" t="n">
-        <v>1828.971033901635</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O21" t="n">
-        <v>1828.971033901635</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P21" t="n">
-        <v>1828.971033901635</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q21" t="n">
         <v>1828.971033901635</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>516.5477476675582</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C22" t="n">
-        <v>440.3726934784146</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D22" t="n">
-        <v>440.3726934784146</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E22" t="n">
         <v>274.1644876312681</v>
@@ -5922,40 +5922,40 @@
         <v>1132.196759100495</v>
       </c>
       <c r="N22" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O22" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P22" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q22" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R22" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="S22" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T22" t="n">
-        <v>1822.202732251165</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U22" t="n">
-        <v>1542.018283751469</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V22" t="n">
-        <v>1260.306816359498</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W22" t="n">
-        <v>985.454412532011</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X22" t="n">
-        <v>742.8905159778161</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y22" t="n">
-        <v>516.5477476675582</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="23">
@@ -5989,13 +5989,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J23" t="n">
-        <v>102.3027134058285</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K23" t="n">
-        <v>102.3027134058285</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L23" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="M23" t="n">
         <v>2011.818868109901</v>
@@ -6065,25 +6065,25 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I24" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J24" t="n">
-        <v>102.3027134058285</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L24" t="n">
-        <v>102.3027134058285</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M24" t="n">
-        <v>275.5106105659859</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N24" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O24" t="n">
-        <v>1364.825557038856</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P24" t="n">
         <v>1364.825557038856</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>569.7211267295927</v>
+        <v>446.1370507523521</v>
       </c>
       <c r="C25" t="n">
-        <v>397.7485636085087</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="D25" t="n">
-        <v>397.7485636085087</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="E25" t="n">
-        <v>397.7485636085087</v>
+        <v>274.1644876312681</v>
       </c>
       <c r="F25" t="n">
-        <v>397.7485636085087</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="G25" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H25" t="n">
         <v>102.3027134058285</v>
@@ -6171,28 +6171,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R25" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S25" t="n">
-        <v>2065.542080025265</v>
+        <v>2185.297351822124</v>
       </c>
       <c r="T25" t="n">
-        <v>2065.542080025265</v>
+        <v>1941.958004048024</v>
       </c>
       <c r="U25" t="n">
-        <v>1785.357631525569</v>
+        <v>1661.773555548329</v>
       </c>
       <c r="V25" t="n">
-        <v>1503.646164133598</v>
+        <v>1380.062088156358</v>
       </c>
       <c r="W25" t="n">
-        <v>1228.793760306111</v>
+        <v>1105.20968432887</v>
       </c>
       <c r="X25" t="n">
-        <v>986.2298637519162</v>
+        <v>862.6457877746757</v>
       </c>
       <c r="Y25" t="n">
-        <v>759.8870954416583</v>
+        <v>636.3030194644177</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J26" t="n">
-        <v>338.650469582768</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K26" t="n">
-        <v>1054.158777558267</v>
+        <v>817.8110213813276</v>
       </c>
       <c r="L26" t="n">
-        <v>1983.783825177544</v>
+        <v>1747.436069000604</v>
       </c>
       <c r="M26" t="n">
-        <v>2988.069926596602</v>
+        <v>2751.722170419663</v>
       </c>
       <c r="N26" t="n">
-        <v>2988.069926596602</v>
+        <v>3727.973228906364</v>
       </c>
       <c r="O26" t="n">
-        <v>3833.214576747414</v>
+        <v>4573.117879057176</v>
       </c>
       <c r="P26" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q26" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R26" t="n">
         <v>5115.135670291427</v>
@@ -6302,31 +6302,31 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I27" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J27" t="n">
-        <v>374.0002026854196</v>
+        <v>381.4468456473314</v>
       </c>
       <c r="K27" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="L27" t="n">
-        <v>374.0002026854196</v>
+        <v>971.931772215671</v>
       </c>
       <c r="M27" t="n">
-        <v>1429.986740661465</v>
+        <v>971.931772215671</v>
       </c>
       <c r="N27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="O27" t="n">
-        <v>1910.990343986338</v>
+        <v>971.931772215671</v>
       </c>
       <c r="P27" t="n">
-        <v>1910.990343986338</v>
+        <v>1364.825557038856</v>
       </c>
       <c r="Q27" t="n">
-        <v>1910.990343986338</v>
+        <v>1828.971033901635</v>
       </c>
       <c r="R27" t="n">
         <v>1910.990343986338</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>741.8809303238178</v>
+        <v>1085.715267670341</v>
       </c>
       <c r="C28" t="n">
-        <v>741.8809303238178</v>
+        <v>913.7427045492574</v>
       </c>
       <c r="D28" t="n">
-        <v>578.5641574505885</v>
+        <v>750.4259316760281</v>
       </c>
       <c r="E28" t="n">
-        <v>412.355951603442</v>
+        <v>584.2177258288816</v>
       </c>
       <c r="F28" t="n">
         <v>412.355951603442</v>
@@ -6417,19 +6417,19 @@
         <v>1822.202732251165</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.018283751469</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="V28" t="n">
-        <v>1542.018283751469</v>
+        <v>1822.202732251165</v>
       </c>
       <c r="W28" t="n">
-        <v>1267.165879923982</v>
+        <v>1744.78790124686</v>
       </c>
       <c r="X28" t="n">
-        <v>1024.601983369787</v>
+        <v>1502.224004692665</v>
       </c>
       <c r="Y28" t="n">
-        <v>798.2592150595294</v>
+        <v>1275.881236382407</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2540.701498063316</v>
+        <v>2540.701498063315</v>
       </c>
       <c r="C29" t="n">
-        <v>2113.800768076616</v>
+        <v>2113.800768076615</v>
       </c>
       <c r="D29" t="n">
         <v>1690.508147261616</v>
@@ -6451,13 +6451,13 @@
         <v>1264.531207409474</v>
       </c>
       <c r="F29" t="n">
-        <v>839.4070255988738</v>
+        <v>839.4070255988736</v>
       </c>
       <c r="G29" t="n">
-        <v>435.0679631883225</v>
+        <v>435.0679631883222</v>
       </c>
       <c r="H29" t="n">
-        <v>137.1995846623573</v>
+        <v>137.1995846623568</v>
       </c>
       <c r="I29" t="n">
         <v>102.3027134058285</v>
@@ -6472,19 +6472,19 @@
         <v>2110.0395278175</v>
       </c>
       <c r="M29" t="n">
-        <v>2110.0395278175</v>
+        <v>3114.325629236558</v>
       </c>
       <c r="N29" t="n">
-        <v>3086.290586304201</v>
+        <v>4090.576687723259</v>
       </c>
       <c r="O29" t="n">
-        <v>3931.435236455013</v>
+        <v>4935.721337874071</v>
       </c>
       <c r="P29" t="n">
-        <v>4541.493855905342</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="Q29" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R29" t="n">
         <v>5115.135670291427</v>
@@ -6499,10 +6499,10 @@
         <v>4531.487895805612</v>
       </c>
       <c r="V29" t="n">
-        <v>4173.998480931862</v>
+        <v>4173.998480931861</v>
       </c>
       <c r="W29" t="n">
-        <v>3777.607131232209</v>
+        <v>3777.607131232208</v>
       </c>
       <c r="X29" t="n">
         <v>3365.887132399955</v>
@@ -6539,28 +6539,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="J30" t="n">
-        <v>102.3027134058285</v>
+        <v>109.7493563677404</v>
       </c>
       <c r="K30" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="L30" t="n">
-        <v>102.3027134058285</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="M30" t="n">
-        <v>305.3113489363686</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="N30" t="n">
-        <v>305.3113489363686</v>
+        <v>700.2342829360799</v>
       </c>
       <c r="O30" t="n">
-        <v>1194.79262694784</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P30" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q30" t="n">
         <v>1910.990343986338</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>584.328514724526</v>
+        <v>616.7597400424195</v>
       </c>
       <c r="C31" t="n">
-        <v>412.355951603442</v>
+        <v>444.7871769213355</v>
       </c>
       <c r="D31" t="n">
-        <v>412.355951603442</v>
+        <v>444.7871769213355</v>
       </c>
       <c r="E31" t="n">
-        <v>412.355951603442</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F31" t="n">
-        <v>412.355951603442</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G31" t="n">
-        <v>246.0989818976742</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H31" t="n">
         <v>102.3027134058285</v>
@@ -6645,28 +6645,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R31" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S31" t="n">
-        <v>2065.542080025265</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="T31" t="n">
-        <v>1822.202732251165</v>
+        <v>2112.580693338092</v>
       </c>
       <c r="U31" t="n">
-        <v>1542.018283751469</v>
+        <v>1832.396244838396</v>
       </c>
       <c r="V31" t="n">
-        <v>1260.306816359498</v>
+        <v>1550.684777446425</v>
       </c>
       <c r="W31" t="n">
-        <v>1243.401148301044</v>
+        <v>1275.832373618938</v>
       </c>
       <c r="X31" t="n">
-        <v>1000.83725174685</v>
+        <v>1033.268477064743</v>
       </c>
       <c r="Y31" t="n">
-        <v>774.4944834365917</v>
+        <v>806.9257087544852</v>
       </c>
     </row>
     <row r="32">
@@ -6700,16 +6700,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="J32" t="n">
-        <v>292.0244587153436</v>
+        <v>464.9061722227241</v>
       </c>
       <c r="K32" t="n">
-        <v>1007.532766690843</v>
+        <v>1180.414480198223</v>
       </c>
       <c r="L32" t="n">
-        <v>1007.532766690843</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M32" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="N32" t="n">
         <v>2988.069926596602</v>
@@ -6788,16 +6788,16 @@
         <v>102.3027134058285</v>
       </c>
       <c r="M33" t="n">
-        <v>305.3113489363686</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N33" t="n">
-        <v>305.3113489363686</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O33" t="n">
-        <v>1194.79262694784</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P33" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q33" t="n">
         <v>1910.990343986338</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>568.9456755096874</v>
+        <v>778.6022263052665</v>
       </c>
       <c r="C34" t="n">
-        <v>568.9456755096874</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="D34" t="n">
-        <v>568.9456755096874</v>
+        <v>606.6296631841825</v>
       </c>
       <c r="E34" t="n">
-        <v>568.9456755096874</v>
+        <v>440.421457337036</v>
       </c>
       <c r="F34" t="n">
-        <v>397.0839012842478</v>
+        <v>268.5596831115964</v>
       </c>
       <c r="G34" t="n">
-        <v>230.8269315784799</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="H34" t="n">
-        <v>202.0712816655526</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="I34" t="n">
         <v>102.3027134058285</v>
@@ -6882,28 +6882,28 @@
         <v>2282.715740818957</v>
       </c>
       <c r="R34" t="n">
-        <v>2235.67712750613</v>
+        <v>2282.715740818957</v>
       </c>
       <c r="S34" t="n">
-        <v>2065.542080025265</v>
+        <v>2274.423179600939</v>
       </c>
       <c r="T34" t="n">
-        <v>1822.202732251165</v>
+        <v>2274.423179600939</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.018283751469</v>
+        <v>1994.238731101243</v>
       </c>
       <c r="V34" t="n">
-        <v>1260.306816359498</v>
+        <v>1712.527263709272</v>
       </c>
       <c r="W34" t="n">
-        <v>985.454412532011</v>
+        <v>1437.674859881785</v>
       </c>
       <c r="X34" t="n">
-        <v>985.454412532011</v>
+        <v>1195.11096332759</v>
       </c>
       <c r="Y34" t="n">
-        <v>759.1116442217531</v>
+        <v>968.7681950173321</v>
       </c>
     </row>
     <row r="35">
@@ -6943,22 +6943,22 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L35" t="n">
-        <v>1180.414480198223</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M35" t="n">
-        <v>2184.700581617281</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="N35" t="n">
-        <v>3160.951640103982</v>
+        <v>3105.626261478504</v>
       </c>
       <c r="O35" t="n">
-        <v>4006.096290254794</v>
+        <v>3950.770911629316</v>
       </c>
       <c r="P35" t="n">
-        <v>4541.493855905342</v>
+        <v>4659.050190787244</v>
       </c>
       <c r="Q35" t="n">
-        <v>4997.579335409525</v>
+        <v>5115.135670291427</v>
       </c>
       <c r="R35" t="n">
         <v>5115.135670291427</v>
@@ -7013,28 +7013,28 @@
         <v>102.3027134058285</v>
       </c>
       <c r="I36" t="n">
-        <v>109.7493563677404</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="J36" t="n">
-        <v>381.4468456473314</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="K36" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="L36" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="M36" t="n">
-        <v>821.6753975134684</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="N36" t="n">
-        <v>1910.990343986338</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O36" t="n">
-        <v>1910.990343986338</v>
+        <v>730.647150085061</v>
       </c>
       <c r="P36" t="n">
-        <v>1910.990343986338</v>
+        <v>1446.844867123559</v>
       </c>
       <c r="Q36" t="n">
         <v>1910.990343986338</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>437.5920494001418</v>
+        <v>747.6452875977553</v>
       </c>
       <c r="C37" t="n">
-        <v>265.6194862790578</v>
+        <v>575.6727244766713</v>
       </c>
       <c r="D37" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="E37" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="F37" t="n">
-        <v>102.3027134058285</v>
+        <v>412.355951603442</v>
       </c>
       <c r="G37" t="n">
-        <v>102.3027134058285</v>
+        <v>246.0989818976742</v>
       </c>
       <c r="H37" t="n">
         <v>102.3027134058285</v>
@@ -7131,16 +7131,16 @@
         <v>1542.018283751469</v>
       </c>
       <c r="V37" t="n">
-        <v>1260.306816359498</v>
+        <v>1542.018283751469</v>
       </c>
       <c r="W37" t="n">
-        <v>985.454412532011</v>
+        <v>1267.165879923982</v>
       </c>
       <c r="X37" t="n">
-        <v>742.8905159778161</v>
+        <v>1164.154024620079</v>
       </c>
       <c r="Y37" t="n">
-        <v>516.5477476675582</v>
+        <v>937.8112563098209</v>
       </c>
     </row>
     <row r="38">
@@ -7180,16 +7180,16 @@
         <v>1180.414480198223</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.818868109901</v>
+        <v>2110.0395278175</v>
       </c>
       <c r="M38" t="n">
-        <v>2011.818868109901</v>
+        <v>2720.098147267829</v>
       </c>
       <c r="N38" t="n">
-        <v>2988.069926596602</v>
+        <v>3696.34920575453</v>
       </c>
       <c r="O38" t="n">
-        <v>3833.214576747414</v>
+        <v>4541.493855905342</v>
       </c>
       <c r="P38" t="n">
         <v>4541.493855905342</v>
@@ -7201,10 +7201,10 @@
         <v>5115.135670291427</v>
       </c>
       <c r="S38" t="n">
-        <v>5010.768376164568</v>
+        <v>5010.768376164567</v>
       </c>
       <c r="T38" t="n">
-        <v>4789.8428052092</v>
+        <v>4789.842805209199</v>
       </c>
       <c r="U38" t="n">
         <v>4531.487895805612</v>
@@ -7265,13 +7265,13 @@
         <v>102.3027134058285</v>
       </c>
       <c r="N39" t="n">
-        <v>1191.617659878699</v>
+        <v>102.3027134058285</v>
       </c>
       <c r="O39" t="n">
-        <v>1191.617659878699</v>
+        <v>991.7839914173002</v>
       </c>
       <c r="P39" t="n">
-        <v>1907.815376917197</v>
+        <v>1707.981708455798</v>
       </c>
       <c r="Q39" t="n">
         <v>1910.990343986338</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>552.7245472657505</v>
+        <v>841.6494985835419</v>
       </c>
       <c r="C40" t="n">
-        <v>380.7519841446665</v>
+        <v>841.6494985835419</v>
       </c>
       <c r="D40" t="n">
-        <v>217.4352112714372</v>
+        <v>678.3327257103126</v>
       </c>
       <c r="E40" t="n">
-        <v>217.4352112714372</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="F40" t="n">
-        <v>102.3027134058285</v>
+        <v>512.1245198631661</v>
       </c>
       <c r="G40" t="n">
-        <v>102.3027134058285</v>
+        <v>345.8675501573982</v>
       </c>
       <c r="H40" t="n">
-        <v>102.3027134058285</v>
+        <v>202.0712816655526</v>
       </c>
       <c r="I40" t="n">
         <v>102.3027134058285</v>
@@ -7344,40 +7344,40 @@
         <v>1132.196759100495</v>
       </c>
       <c r="N40" t="n">
-        <v>1509.688269976531</v>
+        <v>1509.688269976534</v>
       </c>
       <c r="O40" t="n">
-        <v>1865.116398656294</v>
+        <v>1865.116398656297</v>
       </c>
       <c r="P40" t="n">
-        <v>2155.715610578195</v>
+        <v>2155.715610578198</v>
       </c>
       <c r="Q40" t="n">
-        <v>2282.715740818957</v>
+        <v>2282.71574081896</v>
       </c>
       <c r="R40" t="n">
-        <v>2235.67712750613</v>
+        <v>2235.677127506133</v>
       </c>
       <c r="S40" t="n">
-        <v>2065.542080025265</v>
+        <v>2065.542080025268</v>
       </c>
       <c r="T40" t="n">
-        <v>1822.202732251165</v>
+        <v>1822.202732251168</v>
       </c>
       <c r="U40" t="n">
-        <v>1542.018283751469</v>
+        <v>1542.018283751472</v>
       </c>
       <c r="V40" t="n">
-        <v>1260.306816359498</v>
+        <v>1260.306816359501</v>
       </c>
       <c r="W40" t="n">
-        <v>985.454412532011</v>
+        <v>985.4544125320142</v>
       </c>
       <c r="X40" t="n">
-        <v>742.8905159778161</v>
+        <v>985.4544125320142</v>
       </c>
       <c r="Y40" t="n">
-        <v>742.8905159778161</v>
+        <v>841.6494985835419</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2538.475729536478</v>
+        <v>2429.413071721394</v>
       </c>
       <c r="C41" t="n">
-        <v>2111.574999549778</v>
+        <v>2002.512341734694</v>
       </c>
       <c r="D41" t="n">
-        <v>1688.282378734778</v>
+        <v>1579.219720919694</v>
       </c>
       <c r="E41" t="n">
-        <v>1262.305438882635</v>
+        <v>1153.242781067552</v>
       </c>
       <c r="F41" t="n">
         <v>837.1812570720355</v>
@@ -7420,10 +7420,10 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M41" t="n">
-        <v>2745.67509191879</v>
+        <v>2107.813759290661</v>
       </c>
       <c r="N41" t="n">
-        <v>3721.926150405491</v>
+        <v>2876.781500254679</v>
       </c>
       <c r="O41" t="n">
         <v>3721.926150405491</v>
@@ -7490,25 +7490,25 @@
         <v>100.0769448789901</v>
       </c>
       <c r="J42" t="n">
-        <v>355.3041521238506</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K42" t="n">
-        <v>355.3041521238506</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L42" t="n">
-        <v>355.3041521238506</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M42" t="n">
-        <v>355.3041521238506</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="N42" t="n">
-        <v>1444.619098596721</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="O42" t="n">
-        <v>1444.619098596721</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P42" t="n">
-        <v>1444.619098596721</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q42" t="n">
         <v>1908.7645754595</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3640.589801095121</v>
+        <v>515.6143447516438</v>
       </c>
       <c r="C43" t="n">
-        <v>3468.617237974037</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="D43" t="n">
-        <v>3305.300465100808</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="E43" t="n">
-        <v>3139.092259253661</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="F43" t="n">
-        <v>2967.230485028222</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="G43" t="n">
-        <v>2967.230485028222</v>
+        <v>343.6417816305598</v>
       </c>
       <c r="H43" t="n">
-        <v>2823.434216536376</v>
+        <v>199.8455131387141</v>
       </c>
       <c r="I43" t="n">
-        <v>2823.434216536376</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J43" t="n">
-        <v>2880.925544760534</v>
+        <v>157.5682731031481</v>
       </c>
       <c r="K43" t="n">
-        <v>3107.453145966371</v>
+        <v>384.0958743089853</v>
       </c>
       <c r="L43" t="n">
-        <v>3462.142467260792</v>
+        <v>738.785195603406</v>
       </c>
       <c r="M43" t="n">
-        <v>3853.328262231043</v>
+        <v>1129.970990573657</v>
       </c>
       <c r="N43" t="n">
-        <v>4230.819773107079</v>
+        <v>1507.462501449693</v>
       </c>
       <c r="O43" t="n">
-        <v>4586.247901786842</v>
+        <v>1862.890630129456</v>
       </c>
       <c r="P43" t="n">
-        <v>4876.847113708743</v>
+        <v>2153.489842051356</v>
       </c>
       <c r="Q43" t="n">
-        <v>5003.847243949504</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="R43" t="n">
-        <v>5003.847243949504</v>
+        <v>2254.774645821416</v>
       </c>
       <c r="S43" t="n">
-        <v>5003.847243949504</v>
+        <v>2254.774645821416</v>
       </c>
       <c r="T43" t="n">
-        <v>4760.507896175404</v>
+        <v>2011.435298047316</v>
       </c>
       <c r="U43" t="n">
-        <v>4480.323447675709</v>
+        <v>1731.25084954762</v>
       </c>
       <c r="V43" t="n">
-        <v>4331.950941944931</v>
+        <v>1449.539382155649</v>
       </c>
       <c r="W43" t="n">
-        <v>4057.098538117445</v>
+        <v>1174.686978328162</v>
       </c>
       <c r="X43" t="n">
-        <v>4057.098538117445</v>
+        <v>932.1230817739674</v>
       </c>
       <c r="Y43" t="n">
-        <v>3830.755769807186</v>
+        <v>705.7803134637095</v>
       </c>
     </row>
     <row r="44">
@@ -7657,10 +7657,10 @@
         <v>2107.813759290661</v>
       </c>
       <c r="M44" t="n">
-        <v>2876.781500254679</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="N44" t="n">
-        <v>2876.781500254679</v>
+        <v>3112.09986070972</v>
       </c>
       <c r="O44" t="n">
         <v>3721.926150405491</v>
@@ -7675,10 +7675,10 @@
         <v>5003.847243949504</v>
       </c>
       <c r="S44" t="n">
-        <v>4899.479949822645</v>
+        <v>5003.847243949504</v>
       </c>
       <c r="T44" t="n">
-        <v>4678.554378867278</v>
+        <v>4787.617036682362</v>
       </c>
       <c r="U44" t="n">
         <v>4529.262127278774</v>
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3762.283104400451</v>
+        <v>667.2004359104453</v>
       </c>
       <c r="C45" t="n">
-        <v>3644.777200917955</v>
+        <v>549.6945324279501</v>
       </c>
       <c r="D45" t="n">
-        <v>3540.93724243324</v>
+        <v>445.8545739432351</v>
       </c>
       <c r="E45" t="n">
-        <v>3436.235308706178</v>
+        <v>341.1526402161723</v>
       </c>
       <c r="F45" t="n">
-        <v>3342.589478389082</v>
+        <v>247.5068098990765</v>
       </c>
       <c r="G45" t="n">
-        <v>3248.535706606686</v>
+        <v>153.4530381166805</v>
       </c>
       <c r="H45" t="n">
-        <v>3195.159613368996</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I45" t="n">
-        <v>3202.606256330908</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="J45" t="n">
-        <v>3202.606256330908</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="K45" t="n">
-        <v>3398.168248899535</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="L45" t="n">
-        <v>3398.168248899535</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="M45" t="n">
-        <v>3398.168248899535</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="N45" t="n">
-        <v>3398.168248899535</v>
+        <v>1019.283297448028</v>
       </c>
       <c r="O45" t="n">
-        <v>4287.649526911006</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="P45" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="Q45" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="R45" t="n">
-        <v>5003.847243949504</v>
+        <v>1908.7645754595</v>
       </c>
       <c r="S45" t="n">
-        <v>4922.522996510759</v>
+        <v>1827.440328020754</v>
       </c>
       <c r="T45" t="n">
-        <v>4780.643060808437</v>
+        <v>1685.560392318433</v>
       </c>
       <c r="U45" t="n">
-        <v>4595.874864728074</v>
+        <v>1500.792196238069</v>
       </c>
       <c r="V45" t="n">
-        <v>4390.901725867341</v>
+        <v>1295.819057377335</v>
       </c>
       <c r="W45" t="n">
-        <v>4194.380348700558</v>
+        <v>1099.297680210553</v>
       </c>
       <c r="X45" t="n">
-        <v>4030.903002467221</v>
+        <v>935.8203339772157</v>
       </c>
       <c r="Y45" t="n">
-        <v>3891.210113820513</v>
+        <v>796.1274453305081</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>839.4237300567033</v>
+        <v>541.3296712223457</v>
       </c>
       <c r="C46" t="n">
-        <v>839.4237300567033</v>
+        <v>369.3571081012617</v>
       </c>
       <c r="D46" t="n">
-        <v>676.106957183474</v>
+        <v>206.0403352280324</v>
       </c>
       <c r="E46" t="n">
-        <v>509.8987513363276</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="F46" t="n">
-        <v>509.8987513363276</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="G46" t="n">
-        <v>343.6417816305598</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="H46" t="n">
-        <v>199.8455131387141</v>
+        <v>100.0769448789901</v>
       </c>
       <c r="I46" t="n">
         <v>100.0769448789901</v>
@@ -7830,28 +7830,28 @@
         <v>2280.489972292118</v>
       </c>
       <c r="R46" t="n">
-        <v>2233.451358979291</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="S46" t="n">
-        <v>2063.316311498426</v>
+        <v>2280.489972292118</v>
       </c>
       <c r="T46" t="n">
-        <v>1819.976963724326</v>
+        <v>2037.150624518018</v>
       </c>
       <c r="U46" t="n">
-        <v>1819.976963724326</v>
+        <v>1756.966176018322</v>
       </c>
       <c r="V46" t="n">
-        <v>1538.265496332355</v>
+        <v>1475.254708626351</v>
       </c>
       <c r="W46" t="n">
-        <v>1308.330394921156</v>
+        <v>1200.402304798864</v>
       </c>
       <c r="X46" t="n">
-        <v>1065.766498366961</v>
+        <v>957.8384082446693</v>
       </c>
       <c r="Y46" t="n">
-        <v>839.4237300567033</v>
+        <v>731.4956399344113</v>
       </c>
     </row>
   </sheetData>
@@ -7981,22 +7981,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K2" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L2" t="n">
-        <v>38.31204243262292</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M2" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N2" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O2" t="n">
-        <v>181.6704383876113</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P2" t="n">
-        <v>593.8031749258255</v>
+        <v>181.8548408418185</v>
       </c>
       <c r="Q2" t="n">
         <v>496.8170781441769</v>
@@ -8057,31 +8057,31 @@
         <v>16.17238675</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>268.0669951958121</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>23.09678051232798</v>
+        <v>380.3086605601453</v>
       </c>
       <c r="N3" t="n">
-        <v>21.34302821354166</v>
+        <v>577.5708413291358</v>
       </c>
       <c r="O3" t="n">
         <v>579.3997028378163</v>
       </c>
       <c r="P3" t="n">
-        <v>577.9986543204228</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q3" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R3" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>78.70880469517321</v>
       </c>
       <c r="K4" t="n">
         <v>249.7804132464869</v>
@@ -8157,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039392</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8221,10 +8221,10 @@
         <v>591.9924139104035</v>
       </c>
       <c r="L5" t="n">
-        <v>594.539855548217</v>
+        <v>301.3352940721928</v>
       </c>
       <c r="M5" t="n">
-        <v>86.17533235500369</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
         <v>593.5074359500402</v>
@@ -8236,10 +8236,10 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J6" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K6" t="n">
-        <v>22.39923383333334</v>
+        <v>578.6270469489275</v>
       </c>
       <c r="L6" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M6" t="n">
-        <v>268.7645418748068</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N6" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P6" t="n">
-        <v>21.77084120482866</v>
+        <v>458.854857777643</v>
       </c>
       <c r="Q6" t="n">
         <v>491.5808533018869</v>
       </c>
       <c r="R6" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8376,7 +8376,7 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464876</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
@@ -8455,22 +8455,22 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K8" t="n">
-        <v>591.9924139104035</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>572.0660045132436</v>
+        <v>594.539855548217</v>
       </c>
       <c r="M8" t="n">
-        <v>37.43126289943181</v>
+        <v>593.6590760150259</v>
       </c>
       <c r="N8" t="n">
-        <v>37.27962283444602</v>
+        <v>593.5074359500402</v>
       </c>
       <c r="O8" t="n">
-        <v>593.6187724716183</v>
+        <v>571.1449214366446</v>
       </c>
       <c r="P8" t="n">
-        <v>593.8031749258255</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q8" t="n">
         <v>36.12467460459804</v>
@@ -8528,28 +8528,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K9" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L9" t="n">
-        <v>467.1209648647325</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N9" t="n">
-        <v>21.34302821354166</v>
+        <v>176.6411400339851</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>579.3997028378163</v>
       </c>
       <c r="P9" t="n">
-        <v>21.77084120482866</v>
+        <v>577.9986543204228</v>
       </c>
       <c r="Q9" t="n">
         <v>491.5808533018869</v>
@@ -8698,10 +8698,10 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M11" t="n">
-        <v>37.43126289943181</v>
+        <v>814.1663547822778</v>
       </c>
       <c r="N11" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O11" t="n">
         <v>891.0724241548241</v>
@@ -8710,7 +8710,7 @@
         <v>753.0089771212694</v>
       </c>
       <c r="Q11" t="n">
-        <v>287.4399897374262</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R11" t="n">
         <v>153.7764225027789</v>
@@ -8774,7 +8774,7 @@
         <v>618.848654609434</v>
       </c>
       <c r="L12" t="n">
-        <v>354.5569311593796</v>
+        <v>529.5908311320803</v>
       </c>
       <c r="M12" t="n">
         <v>23.09678051232798</v>
@@ -8783,10 +8783,10 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q12" t="n">
         <v>22.7470382889785</v>
@@ -8929,19 +8929,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K14" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L14" t="n">
         <v>977.3272420480539</v>
       </c>
       <c r="M14" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N14" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O14" t="n">
-        <v>390.0005948959937</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P14" t="n">
         <v>753.0089771212694</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J15" t="n">
         <v>20.61111433333334</v>
@@ -9014,19 +9014,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M15" t="n">
-        <v>861.2183961915432</v>
+        <v>1089.749849175</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>229.9655591801901</v>
       </c>
       <c r="O15" t="n">
-        <v>921.6378271075471</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P15" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9175,7 +9175,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N17" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O17" t="n">
         <v>891.0724241548241</v>
@@ -9187,7 +9187,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R17" t="n">
-        <v>54.56363491934598</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9251,7 +9251,7 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M18" t="n">
-        <v>971.640792401891</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
         <v>21.34302821354166</v>
@@ -9260,13 +9260,13 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q18" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R18" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K20" t="n">
-        <v>659.2874778330922</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L20" t="n">
         <v>977.3272420480539</v>
@@ -9412,7 +9412,7 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O20" t="n">
         <v>891.0724241548241</v>
@@ -9476,19 +9476,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L21" t="n">
-        <v>867.7664080100944</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M21" t="n">
-        <v>921.9548738586921</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N21" t="n">
         <v>21.34302821354166</v>
@@ -9497,10 +9497,10 @@
         <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R21" t="n">
         <v>106.5207073584907</v>
@@ -9637,16 +9637,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>35.76460079480934</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
-        <v>952.6858336296069</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M23" t="n">
-        <v>1051.861668373228</v>
+        <v>877.2336749314295</v>
       </c>
       <c r="N23" t="n">
         <v>1023.391803124043</v>
@@ -9713,28 +9713,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L24" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>198.0542523912748</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N24" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O24" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P24" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q24" t="n">
         <v>491.5808533018869</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>268.1550667350203</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K26" t="n">
         <v>758.5002654165255</v>
@@ -9886,19 +9886,19 @@
         <v>1051.861668373228</v>
       </c>
       <c r="N26" t="n">
-        <v>37.27962283444602</v>
+        <v>1023.391803124043</v>
       </c>
       <c r="O26" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P26" t="n">
-        <v>753.0089771212694</v>
+        <v>585.0680802286672</v>
       </c>
       <c r="Q26" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L27" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>1089.749849175</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N27" t="n">
-        <v>507.2052537942219</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>23.17188972222222</v>
       </c>
       <c r="P27" t="n">
-        <v>21.77084120482866</v>
+        <v>418.6332501171365</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10120,7 +10120,7 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M29" t="n">
-        <v>37.43126289943181</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N29" t="n">
         <v>1023.391803124043</v>
@@ -10129,13 +10129,13 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P29" t="n">
-        <v>653.7961895378362</v>
+        <v>218.8019602116015</v>
       </c>
       <c r="Q29" t="n">
-        <v>496.8170781441769</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,31 +10187,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K30" t="n">
-        <v>22.39923383333334</v>
+        <v>618.848654609434</v>
       </c>
       <c r="L30" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M30" t="n">
-        <v>228.1560083209543</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N30" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>921.6378271075471</v>
+        <v>53.89195754947579</v>
       </c>
       <c r="P30" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q30" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R30" t="n">
         <v>23.67291939414415</v>
@@ -10348,19 +10348,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>221.0580860608543</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K32" t="n">
         <v>758.5002654165255</v>
       </c>
       <c r="L32" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M32" t="n">
-        <v>1051.861668373228</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
-        <v>1023.391803124043</v>
+        <v>924.1790155406098</v>
       </c>
       <c r="O32" t="n">
         <v>891.0724241548241</v>
@@ -10436,19 +10436,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M33" t="n">
-        <v>228.1560083209543</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>921.6378271075471</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P33" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q33" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R33" t="n">
         <v>23.67291939414415</v>
@@ -10591,25 +10591,25 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M35" t="n">
-        <v>1051.861668373228</v>
+        <v>1043.074428213578</v>
       </c>
       <c r="N35" t="n">
-        <v>1023.391803124043</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O35" t="n">
         <v>891.0724241548241</v>
       </c>
       <c r="P35" t="n">
-        <v>578.380983679471</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q35" t="n">
         <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J36" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K36" t="n">
-        <v>467.0745387486232</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L36" t="n">
         <v>22.51508671422956</v>
@@ -10676,16 +10676,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>657.8632399032651</v>
       </c>
       <c r="P36" t="n">
-        <v>21.77084120482866</v>
+        <v>745.2028786174529</v>
       </c>
       <c r="Q36" t="n">
-        <v>22.7470382889785</v>
+        <v>491.5808533018869</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10828,10 +10828,10 @@
         <v>758.5002654165255</v>
       </c>
       <c r="L38" t="n">
-        <v>878.1144544646206</v>
+        <v>977.3272420480539</v>
       </c>
       <c r="M38" t="n">
-        <v>37.43126289943181</v>
+        <v>653.6520906270367</v>
       </c>
       <c r="N38" t="n">
         <v>1023.391803124043</v>
@@ -10840,7 +10840,7 @@
         <v>891.0724241548241</v>
       </c>
       <c r="P38" t="n">
-        <v>753.0089771212694</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
         <v>496.8170781441769</v>
@@ -10913,16 +10913,16 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N39" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P39" t="n">
         <v>745.2028786174529</v>
       </c>
       <c r="Q39" t="n">
-        <v>25.95407573255603</v>
+        <v>227.806266097605</v>
       </c>
       <c r="R39" t="n">
         <v>23.67291939414415</v>
@@ -11068,13 +11068,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M41" t="n">
-        <v>681.7356392914811</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>1023.391803124043</v>
+        <v>814.0147147172921</v>
       </c>
       <c r="O41" t="n">
-        <v>37.3909593560241</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P41" t="n">
         <v>753.0089771212694</v>
@@ -11138,7 +11138,7 @@
         <v>16.17238675</v>
       </c>
       <c r="J42" t="n">
-        <v>278.4163741766267</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K42" t="n">
         <v>22.39923383333334</v>
@@ -11147,19 +11147,19 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>23.09678051232798</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N42" t="n">
-        <v>1121.661155963915</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>921.6378271075471</v>
       </c>
       <c r="P42" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q42" t="n">
-        <v>491.5808533018869</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R42" t="n">
         <v>23.67291939414415</v>
@@ -11305,13 +11305,13 @@
         <v>977.3272420480539</v>
       </c>
       <c r="M44" t="n">
-        <v>814.1663547822778</v>
+        <v>1051.861668373228</v>
       </c>
       <c r="N44" t="n">
         <v>37.27962283444602</v>
       </c>
       <c r="O44" t="n">
-        <v>891.0724241548241</v>
+        <v>653.3771105638739</v>
       </c>
       <c r="P44" t="n">
         <v>753.0089771212694</v>
@@ -11372,19 +11372,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J45" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K45" t="n">
-        <v>219.9366000642696</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>23.09678051232798</v>
+        <v>951.5880457335786</v>
       </c>
       <c r="N45" t="n">
         <v>21.34302821354166</v>
@@ -11393,7 +11393,7 @@
         <v>921.6378271075471</v>
       </c>
       <c r="P45" t="n">
-        <v>745.2028786174529</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q45" t="n">
         <v>22.7470382889785</v>
@@ -23275,7 +23275,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>4.648410051341614</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23320,7 +23320,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>107.972031236933</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>39.86003154426979</v>
       </c>
       <c r="H13" t="n">
-        <v>66.62628970500738</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23475,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23548,7 +23548,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>107.9720312369329</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>107.9720312369329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>66.28277819799457</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>68.81241886352718</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
         <v>98.77088257712678</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>95.11104415035108</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>132.0055720445783</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>94.83953384262102</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>71.98949189918905</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24375,13 +24375,13 @@
         <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>14.46131411498402</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
         <v>98.77088257712678</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>71.9894918991922</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>132.4498071365905</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>195.46319709495</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24846,16 +24846,16 @@
         <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>160.2240614002185</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I31" t="n">
         <v>98.77088257712678</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>255.3672684113431</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25077,13 +25077,13 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>113.8902123931291</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>160.2240614002188</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>110.0981677402028</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25326,10 +25326,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>98.77088257712678</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>138.1565208377887</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>56.16198359623262</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y40" t="n">
-        <v>224.0793406271554</v>
+        <v>81.7124758181678</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>107.9720312369325</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25639,7 +25639,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>107.9720312369327</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>46.56822717969858</v>
+        <v>21.11005397370344</v>
       </c>
       <c r="S43" t="n">
         <v>168.4336970060565</v>
@@ -25845,13 +25845,13 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>132.0055720445817</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>4.64841005134187</v>
       </c>
       <c r="U44" t="n">
-        <v>107.972031236933</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>59.6423673431231</v>
       </c>
       <c r="F46" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,22 +26070,22 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>44.46812939212515</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>581629.6023296788</v>
+        <v>581629.6023296787</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>581629.6023296786</v>
+        <v>581629.6023296787</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>590662.6299334153</v>
+        <v>590662.6299334156</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>590662.6299334153</v>
+        <v>590662.6299334154</v>
       </c>
     </row>
     <row r="9">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>590662.6299334154</v>
+        <v>590662.6299334156</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>581629.6023296789</v>
+        <v>581629.6023296787</v>
       </c>
     </row>
     <row r="16">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>436832.0010083725</v>
+      </c>
+      <c r="C2" t="n">
         <v>436832.0010083723</v>
-      </c>
-      <c r="C2" t="n">
-        <v>436832.0010083722</v>
       </c>
       <c r="D2" t="n">
         <v>436832.0010083723</v>
@@ -26328,7 +26328,7 @@
         <v>415076.8720882403</v>
       </c>
       <c r="G2" t="n">
-        <v>421522.8023530854</v>
+        <v>421522.8023530853</v>
       </c>
       <c r="H2" t="n">
         <v>421522.8023530854</v>
@@ -26340,16 +26340,16 @@
         <v>421522.8023530854</v>
       </c>
       <c r="K2" t="n">
-        <v>421522.8023530858</v>
+        <v>421522.8023530855</v>
       </c>
       <c r="L2" t="n">
-        <v>421522.8023530855</v>
+        <v>421522.8023530853</v>
       </c>
       <c r="M2" t="n">
-        <v>421522.8023530853</v>
+        <v>421522.8023530854</v>
       </c>
       <c r="N2" t="n">
-        <v>421522.8023530854</v>
+        <v>421522.8023530857</v>
       </c>
       <c r="O2" t="n">
         <v>415076.8720882406</v>
@@ -26444,22 +26444,22 @@
         <v>29432.2870559115</v>
       </c>
       <c r="K4" t="n">
-        <v>29432.28705591145</v>
+        <v>29432.2870559115</v>
       </c>
       <c r="L4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591151</v>
       </c>
       <c r="M4" t="n">
         <v>29432.2870559115</v>
       </c>
       <c r="N4" t="n">
-        <v>29432.2870559115</v>
+        <v>29432.28705591151</v>
       </c>
       <c r="O4" t="n">
+        <v>28980.67952111639</v>
+      </c>
+      <c r="P4" t="n">
         <v>28980.6795211164</v>
-      </c>
-      <c r="P4" t="n">
-        <v>28980.67952111639</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>26227.94075047155</v>
+        <v>26227.94075047172</v>
       </c>
       <c r="C6" t="n">
-        <v>212632.6741652087</v>
+        <v>212632.6741652089</v>
       </c>
       <c r="D6" t="n">
-        <v>212632.6741652089</v>
+        <v>212632.6741652088</v>
       </c>
       <c r="E6" t="n">
-        <v>102605.4268425307</v>
+        <v>102532.9097461302</v>
       </c>
       <c r="F6" t="n">
-        <v>310037.7144590915</v>
+        <v>309965.1973626911</v>
       </c>
       <c r="G6" t="n">
-        <v>306714.8310252627</v>
+        <v>306663.8003630784</v>
       </c>
       <c r="H6" t="n">
-        <v>314340.4531087442</v>
+        <v>314289.4224465599</v>
       </c>
       <c r="I6" t="n">
-        <v>314340.4531087441</v>
+        <v>314289.4224465598</v>
       </c>
       <c r="J6" t="n">
-        <v>168806.7831739277</v>
+        <v>168755.7525117435</v>
       </c>
       <c r="K6" t="n">
-        <v>314340.4531087447</v>
+        <v>314289.42244656</v>
       </c>
       <c r="L6" t="n">
-        <v>314340.4531087443</v>
+        <v>314289.4224465598</v>
       </c>
       <c r="M6" t="n">
-        <v>141209.9619031046</v>
+        <v>141158.9312409203</v>
       </c>
       <c r="N6" t="n">
-        <v>314340.4531087442</v>
+        <v>314289.4224465602</v>
       </c>
       <c r="O6" t="n">
-        <v>310037.7144590918</v>
+        <v>309965.1973626913</v>
       </c>
       <c r="P6" t="n">
-        <v>310037.7144590917</v>
+        <v>309965.1973626912</v>
       </c>
     </row>
   </sheetData>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>206.2762395340011</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.095730177743576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>47.18544517283196</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,10 +27584,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27602,10 +27602,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>36.85370811560045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>377.4802179710691</v>
       </c>
       <c r="H5" t="n">
-        <v>55.08045499971968</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I5" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W5" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
         <v>98.77088257712678</v>
@@ -27824,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>141.3294527982341</v>
+        <v>145.1642498049652</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="8">
@@ -27855,16 +27855,16 @@
         <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>218.7163152458132</v>
+        <v>201.9824129405222</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
         <v>353.914520725013</v>
@@ -27921,7 +27921,7 @@
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>101.1659342747064</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28067,13 +28067,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>163.7887810877128</v>
       </c>
       <c r="W10" t="n">
-        <v>0.5934272398632174</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28632,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
     </row>
     <row r="18">
@@ -28766,7 +28766,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>4.147674796210292e-12</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-2.495430374854276e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28994,7 +28994,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>3.110756097157719e-12</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -30273,7 +30273,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-2.495430374854276e-13</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -30416,7 +30416,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>3.110756097157719e-12</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -34701,22 +34701,22 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
         <v>144.2794790315872</v>
-      </c>
-      <c r="P2" t="n">
-        <v>556.2278131155941</v>
       </c>
       <c r="Q2" t="n">
         <v>460.6924035395789</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>245.6677613624788</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>357.2118800478173</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O3" t="n">
         <v>556.2278131155941</v>
       </c>
       <c r="P3" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>58.07204871127134</v>
       </c>
       <c r="K4" t="n">
         <v>228.8157587937749</v>
@@ -34877,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391542</v>
+        <v>128.2829598391535</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34941,10 +34941,10 @@
         <v>556.2278131155941</v>
       </c>
       <c r="L5" t="n">
-        <v>556.2278131155941</v>
+        <v>263.0232516395698</v>
       </c>
       <c r="M5" t="n">
-        <v>48.74406945557187</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>556.2278131155941</v>
@@ -34956,10 +34956,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>245.6677613624788</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>437.0840165728143</v>
       </c>
       <c r="Q6" t="n">
         <v>468.8338150129084</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937756</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L8" t="n">
-        <v>533.7539620806207</v>
-      </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="O8" t="n">
-        <v>556.2278131155941</v>
+        <v>533.7539620806206</v>
       </c>
       <c r="P8" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35248,28 +35248,28 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>155.2981118204434</v>
+      </c>
+      <c r="O9" t="n">
         <v>556.2278131155941</v>
       </c>
-      <c r="L9" t="n">
-        <v>444.6058781505029</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>556.2278131155941</v>
       </c>
       <c r="Q9" t="n">
         <v>468.8338150129084</v>
@@ -35418,10 +35418,10 @@
         <v>939.015199615431</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="N11" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>853.6814647988001</v>
@@ -35430,7 +35430,7 @@
         <v>715.433615311038</v>
       </c>
       <c r="Q11" t="n">
-        <v>251.3153151328282</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R11" t="n">
         <v>118.7437726079824</v>
@@ -35494,7 +35494,7 @@
         <v>596.4494207761006</v>
       </c>
       <c r="L12" t="n">
-        <v>332.04184444515</v>
+        <v>507.0757444178507</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -35503,10 +35503,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35649,19 +35649,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L14" t="n">
         <v>939.015199615431</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O14" t="n">
-        <v>352.6096355399696</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P14" t="n">
         <v>715.433615311038</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -35734,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>838.1216156792152</v>
+        <v>1066.653068662672</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>208.6225309666485</v>
       </c>
       <c r="O15" t="n">
-        <v>898.4659373853249</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R15" t="n">
         <v>82.84778796434657</v>
@@ -35895,7 +35895,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O17" t="n">
         <v>853.6814647988001</v>
@@ -35907,7 +35907,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R17" t="n">
-        <v>19.53098502454951</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35971,7 +35971,7 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>948.544011889563</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36062,7 +36062,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q19" t="n">
-        <v>128.2829598391535</v>
+        <v>128.2829598391576</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,7 +36123,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K20" t="n">
-        <v>623.5228770382829</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L20" t="n">
         <v>939.015199615431</v>
@@ -36132,7 +36132,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O20" t="n">
         <v>853.6814647988001</v>
@@ -36196,19 +36196,19 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L21" t="n">
-        <v>845.2513212958648</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>898.8580933463641</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -36217,10 +36217,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R21" t="n">
         <v>82.84778796434657</v>
@@ -36290,7 +36290,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N22" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404433</v>
       </c>
       <c r="O22" t="n">
         <v>359.0183117977405</v>
@@ -36357,16 +36357,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>722.7356646217162</v>
       </c>
       <c r="L23" t="n">
-        <v>914.373791196984</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.430405473796</v>
+        <v>839.8024120319977</v>
       </c>
       <c r="N23" t="n">
         <v>986.1121802895968</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>174.9574718789468</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q24" t="n">
         <v>468.8338150129084</v>
@@ -36594,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>238.7351072494338</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>722.7356646217162</v>
@@ -36606,19 +36606,19 @@
         <v>1014.430405473796</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>986.1121802895968</v>
       </c>
       <c r="O26" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P26" t="n">
-        <v>715.433615311038</v>
+        <v>547.4927184184359</v>
       </c>
       <c r="Q26" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>1066.653068662672</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>485.8622255806802</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>396.8624089123078</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36840,7 +36840,7 @@
         <v>939.015199615431</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N29" t="n">
         <v>986.1121802895968</v>
@@ -36849,13 +36849,13 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P29" t="n">
-        <v>616.220827727605</v>
+        <v>181.2265984013702</v>
       </c>
       <c r="Q29" t="n">
-        <v>460.6924035395789</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>596.4494207761006</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>898.4659373853249</v>
+        <v>30.72006782725357</v>
       </c>
       <c r="P30" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,19 +37068,19 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>191.6381265752677</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K32" t="n">
         <v>722.7356646217162</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M32" t="n">
-        <v>1014.430405473796</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>986.1121802895968</v>
+        <v>886.8993927061638</v>
       </c>
       <c r="O32" t="n">
         <v>853.6814647988001</v>
@@ -37156,19 +37156,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>205.0592278086264</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>898.4659373853249</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P33" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37311,25 +37311,25 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.430405473796</v>
+        <v>1005.643165314146</v>
       </c>
       <c r="N35" t="n">
-        <v>986.1121802895968</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>853.6814647988001</v>
       </c>
       <c r="P35" t="n">
-        <v>540.8056218692396</v>
+        <v>715.433615311038</v>
       </c>
       <c r="Q35" t="n">
         <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,13 +37381,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>444.6753049152899</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -37396,16 +37396,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>634.6913501810429</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>723.4320374126243</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>468.8338150129084</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37548,10 +37548,10 @@
         <v>722.7356646217162</v>
       </c>
       <c r="L38" t="n">
-        <v>839.8024120319977</v>
+        <v>939.015199615431</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>616.220827727605</v>
       </c>
       <c r="N38" t="n">
         <v>986.1121802895968</v>
@@ -37560,7 +37560,7 @@
         <v>853.6814647988001</v>
       </c>
       <c r="P38" t="n">
-        <v>715.433615311038</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>460.6924035395789</v>
@@ -37633,16 +37633,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P39" t="n">
         <v>723.4320374126243</v>
       </c>
       <c r="Q39" t="n">
-        <v>3.207037443577533</v>
+        <v>205.0592278086265</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37712,7 +37712,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N40" t="n">
-        <v>381.3045564404402</v>
+        <v>381.3045564404433</v>
       </c>
       <c r="O40" t="n">
         <v>359.0183117977405</v>
@@ -37788,13 +37788,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M41" t="n">
-        <v>644.3043763920493</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>986.1121802895968</v>
+        <v>776.7350918828461</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>853.6814647988001</v>
       </c>
       <c r="P41" t="n">
         <v>715.433615311038</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>257.8052598432934</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37867,19 +37867,19 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N42" t="n">
-        <v>1100.318127750374</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>898.4659373853249</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>468.8338150129084</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,13 +38025,13 @@
         <v>939.015199615431</v>
       </c>
       <c r="M44" t="n">
-        <v>776.7350918828461</v>
+        <v>1014.430405473796</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>853.6814647988001</v>
+        <v>615.9861512078497</v>
       </c>
       <c r="P44" t="n">
         <v>715.433615311038</v>
@@ -38092,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>197.5373662309363</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>928.4912652212506</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -38113,7 +38113,7 @@
         <v>898.4659373853249</v>
       </c>
       <c r="P45" t="n">
-        <v>723.4320374126243</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
